--- a/Academic Plan [Faye].xlsx
+++ b/Academic Plan [Faye].xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t xml:space="preserve">Studio Art Minor</t>
   </si>
@@ -90,6 +90,9 @@
     <t xml:space="preserve">Autumn 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Autumn 2026</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -198,6 +201,12 @@
     <t xml:space="preserve">CSE 3341</t>
   </si>
   <si>
+    <t xml:space="preserve">RT Rendering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 5542</t>
+  </si>
+  <si>
     <t xml:space="preserve">Digital Art</t>
   </si>
   <si>
@@ -360,235 +369,235 @@
     <t xml:space="preserve">ACCAD 5002</t>
   </si>
   <si>
+    <t>Ceramics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART 3012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Econ Micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON 2001.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calc III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 2153</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 2431</t>
+  </si>
+  <si>
+    <t>SP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLITSC 1100</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>AU25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGLISH 1167H</t>
+  </si>
+  <si>
+    <t>Cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Animation Minor</t>
+  </si>
+  <si>
+    <t>Ethics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 2501</t>
+  </si>
+  <si>
+    <t>SU25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Lit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGLISH 1110.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive Sys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYSICS 1250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Psych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSYCH 1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 3461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT 1450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOLOGY 1113</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adv CG**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 5545</t>
+  </si>
+  <si>
+    <t>Game/Animation</t>
+  </si>
+  <si>
+    <t>APUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY 1151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANCE 2190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 2568</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDN I</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 5912</t>
+  </si>
+  <si>
+    <t>Capstone*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 5912 or 5913</t>
+  </si>
+  <si>
+    <t>SP26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY 1152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochem I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM 2510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILOS 1332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTRON 2140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochem Lab I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM 2540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Circuits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTART 2001</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science Electives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autumn 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Education Requirements</t>
+  </si>
+  <si>
     <t xml:space="preserve">Geometric Model</t>
   </si>
   <si>
     <t xml:space="preserve">CSE 5543</t>
-  </si>
-  <si>
-    <t>Ceramics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART 3012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP Econ Micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON 2001.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calc III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH 2153</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systems II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 2431</t>
-  </si>
-  <si>
-    <t>SP25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP Gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITSC 1100</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>AU25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP Lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGLISH 1167H</t>
-  </si>
-  <si>
-    <t>Cum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Animation Minor</t>
-  </si>
-  <si>
-    <t>Ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 2501</t>
-  </si>
-  <si>
-    <t>SU25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP Lit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGLISH 1110.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactive Sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHYSICS 1250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP Psych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSYCH 1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 3461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP Stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT 1450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bio I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOLOGY 1113</t>
-  </si>
-  <si>
-    <t>D+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT Rendering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 5542</t>
-  </si>
-  <si>
-    <t>Game/Animation</t>
-  </si>
-  <si>
-    <t>APUSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HISTORY 1151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANCE 2190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Algebra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH 2568</t>
-  </si>
-  <si>
-    <t>C-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDN I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adv CG**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 5545</t>
-  </si>
-  <si>
-    <t>Capstone*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE 5912 or 5913</t>
-  </si>
-  <si>
-    <t>SP26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HISTORY 1152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochem I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEM 2510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHILOS 1332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTRON 2140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochem Lab I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEM 2540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Circuits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECE 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HISTART 2001</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Science Electives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autumn 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education Requirements</t>
   </si>
   <si>
     <t xml:space="preserve">FEH I</t>
@@ -851,7 +860,7 @@
       <name val="Noto Sans"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,8 +873,14 @@
         <bgColor rgb="FFB8A5DE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4D9FF"/>
+        <bgColor rgb="FFE4D9FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -917,6 +932,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
@@ -1015,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1045,6 +1069,9 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,6 +1080,15 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,37 +1099,49 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4971,13 +5019,13 @@
     </dxf>
     <dxf>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -4986,13 +5034,13 @@
         <i val="0"/>
       </font>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="double">
           <color auto="1"/>
         </top>
-        <bottom/>
-        <diagonal/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -5009,7 +5057,7 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -5022,24 +5070,24 @@
     </dxf>
     <dxf>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="medium">
           <color theme="0" tint="-0.24994659260841701"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="double">
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
-        <bottom/>
-        <diagonal/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -5056,7 +5104,7 @@
         <bottom style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -5786,7 +5834,23 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" displayName="GPAScale" ref="B2:E19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" displayName="Table1" ref="CE3:CK9" totalsRowCount="1">
+  <autoFilter ref="CE3:CK8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Name" totalsRowLabel="Sem"/>
+    <tableColumn id="2" name="Course Number"/>
+    <tableColumn id="3" name="AH" totalsRowFunction="sum"/>
+    <tableColumn id="4" name="EH" totalsRowFunction="sum"/>
+    <tableColumn id="5" name="GH" totalsRowFunction="sum"/>
+    <tableColumn id="6" name="Grade" totalsRowFunction="custom"/>
+    <tableColumn id="7" name="GPA" totalsRowFunction="custom"/>
+  </tableColumns>
+  <tableStyleInfo name="Fav" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" displayName="GPAScale" ref="B2:E19">
   <autoFilter ref="B2:E19">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
@@ -6480,7 +6544,7 @@
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="V1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="BU1" zoomScale="85" workbookViewId="0">
       <selection activeCell="CD13" activeCellId="0" sqref="CD13"/>
     </sheetView>
   </sheetViews>
@@ -6626,234 +6690,264 @@
       <c r="CA2" s="6"/>
       <c r="CB2" s="6"/>
       <c r="CC2" s="7"/>
+      <c r="CE2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="7"/>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AL3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AM3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AN3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AI3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AK3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AT3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AU3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AV3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AQ3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AW3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AZ3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="BB3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="BC3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="BD3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AY3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="BE3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BH3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BJ3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BK3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BL3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH3" s="9" t="s">
+      <c r="BM3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BO3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BI3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ3" s="9" t="s">
+      <c r="BP3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BR3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="BS3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="BT3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP3" s="9" t="s">
+      <c r="BU3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BW3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BQ3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR3" s="9" t="s">
+      <c r="BX3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BS3" s="9" t="s">
+      <c r="BZ3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BT3" s="9" t="s">
+      <c r="CA3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BU3" s="9" t="s">
+      <c r="CB3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BW3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BX3" s="9" t="s">
+      <c r="CC3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BY3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
+      <c r="CF3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="CA3" s="9" t="s">
+      <c r="CH3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="9" t="s">
+      <c r="CI3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="CC3" s="9" t="s">
+      <c r="CJ3" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9">
         <v>3</v>
@@ -6867,21 +6961,21 @@
         <v>3</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11">
+        <v>24</v>
+      </c>
+      <c r="I4" s="12">
         <f>_xlfn.XLOOKUP(ArtMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="9">
         <v>4</v>
@@ -6895,40 +6989,40 @@
         <v>4</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="11">
+        <v>24</v>
+      </c>
+      <c r="R4" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U4" s="4">
         <f>BY30</f>
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V4" s="4">
         <f>BZ30</f>
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="W4" s="4">
         <f>CA30</f>
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="X4" s="4">
         <f>CB30</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="13">
         <f>CC30</f>
-        <v>3.3148514851485151</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="13" t="s">
+        <v>2.8615384615384616</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>29</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="AC4" s="9">
         <v>5</v>
@@ -6942,17 +7036,17 @@
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG4" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AK4" s="9">
         <v>3</v>
@@ -6966,17 +7060,17 @@
         <v>3</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="11">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="12">
         <f>_xlfn.XLOOKUP(AU_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AS4" s="9">
         <v>5</v>
@@ -6990,17 +7084,17 @@
         <v>5</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW4" s="11">
+        <v>37</v>
+      </c>
+      <c r="AW4" s="12">
         <f>_xlfn.XLOOKUP(AU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>2</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BA4" s="9">
         <v>3</v>
@@ -7014,17 +7108,17 @@
         <v>3</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE4" s="11">
+        <v>40</v>
+      </c>
+      <c r="BE4" s="12">
         <f>_xlfn.XLOOKUP(AU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BI4" s="9">
         <v>4</v>
@@ -7038,17 +7132,17 @@
         <v>4</v>
       </c>
       <c r="BL4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM4" s="11">
+        <v>24</v>
+      </c>
+      <c r="BM4" s="12">
         <f>_xlfn.XLOOKUP(AU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BQ4" s="9">
         <v>3</v>
@@ -7062,44 +7156,66 @@
         <v>0</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BU4" s="11">
+        <v>44</v>
+      </c>
+      <c r="BU4" s="12">
         <f>_xlfn.XLOOKUP(AU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BY4" s="9">
         <v>3</v>
       </c>
       <c r="BZ4" s="9">
         <f>IF(_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),AU_25[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA4" s="9">
         <f>IF(_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),AU_25[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB4" s="9"/>
-      <c r="CC4" s="11">
+      <c r="CC4" s="12">
         <f>_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG4" s="16">
+        <v>3</v>
+      </c>
+      <c r="CH4" s="16">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Table1[[#This Row],[AH]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="CI4" s="16">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Table1[[#This Row],[AH]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="17">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9">
         <v>3</v>
@@ -7113,21 +7229,21 @@
         <v>3</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="11">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12">
         <f>_xlfn.XLOOKUP(ArtMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N5" s="9">
         <v>4</v>
@@ -7141,14 +7257,14 @@
         <v>4</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="11">
+        <v>24</v>
+      </c>
+      <c r="R5" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U5" s="9">
         <f>SUM(Core[[#Totals],[AH]],Electives[[#Totals],[AH]],GenEng[[#Totals],[AH]],NonMajor[[#Totals],[AH]])</f>
@@ -7166,15 +7282,15 @@
         <f>SUM(Core[[#Totals],[Grade]],Electives[[#Totals],[Grade]],GenEng[[#Totals],[Grade]],NonMajor[[#Totals],[Grade]])</f>
         <v>136.90000000000001</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="12">
         <f>IFERROR(Summary[[#This Row],[Points]]/Summary[[#This Row],[GH]],0)</f>
         <v>3.5102564102564102</v>
       </c>
-      <c r="AA5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>54</v>
+      <c r="AA5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="AC5" s="9">
         <v>5</v>
@@ -7188,17 +7304,17 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK5" s="9">
         <v>3</v>
@@ -7212,17 +7328,17 @@
         <v>3</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO5" s="11">
+        <v>24</v>
+      </c>
+      <c r="AO5" s="12">
         <f>_xlfn.XLOOKUP(AU_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AS5" s="9">
         <v>3</v>
@@ -7236,17 +7352,17 @@
         <v>3</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW5" s="11">
+        <v>60</v>
+      </c>
+      <c r="AW5" s="12">
         <f>_xlfn.XLOOKUP(AU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BA5" s="9">
         <v>3</v>
@@ -7260,17 +7376,17 @@
         <v>3</v>
       </c>
       <c r="BD5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE5" s="11">
+        <v>63</v>
+      </c>
+      <c r="BE5" s="12">
         <f>_xlfn.XLOOKUP(AU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BI5" s="9">
         <v>3</v>
@@ -7284,17 +7400,17 @@
         <v>3</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM5" s="11">
+        <v>63</v>
+      </c>
+      <c r="BM5" s="12">
         <f>_xlfn.XLOOKUP(AU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BQ5" s="9">
         <v>4</v>
@@ -7308,44 +7424,66 @@
         <v>0</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BU5" s="11">
+        <v>44</v>
+      </c>
+      <c r="BU5" s="12">
         <f>_xlfn.XLOOKUP(AU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BY5" s="9">
         <v>3</v>
       </c>
       <c r="BZ5" s="9">
         <f>IF(_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),AU_25[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA5" s="9">
         <f>IF(_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),AU_25[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB5" s="9"/>
-      <c r="CC5" s="11">
+      <c r="CC5" s="12">
         <f>_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CH5" s="9">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Table1[[#This Row],[AH]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="CI5" s="9">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Table1[[#This Row],[AH]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="12">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9">
         <v>3</v>
@@ -7359,21 +7497,21 @@
         <v>3</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="11">
+        <v>24</v>
+      </c>
+      <c r="I6" s="12">
         <f>_xlfn.XLOOKUP(ArtMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N6" s="9">
         <v>3</v>
@@ -7387,14 +7525,14 @@
         <v>3</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="11">
+        <v>63</v>
+      </c>
+      <c r="R6" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U6" s="4">
         <f>ArtMinor[[#Totals],[AH]]</f>
@@ -7412,15 +7550,15 @@
         <f>ArtMinor[[#Totals],[Grade]]</f>
         <v>57</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="12">
         <f>IFERROR(Summary[[#This Row],[Points]]/Summary[[#This Row],[GH]],0)</f>
         <v>3.7999999999999998</v>
       </c>
-      <c r="AA6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>73</v>
+      <c r="AA6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="AC6" s="9">
         <v>0</v>
@@ -7434,17 +7572,17 @@
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG6" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG6" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9">
         <v>5</v>
@@ -7458,17 +7596,17 @@
         <v>0</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO6" s="11">
+        <v>79</v>
+      </c>
+      <c r="AO6" s="12">
         <f>_xlfn.XLOOKUP(AU_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AS6" s="9">
         <v>4</v>
@@ -7482,9 +7620,9 @@
         <v>0</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW6" s="11">
+        <v>79</v>
+      </c>
+      <c r="AW6" s="12">
         <f>_xlfn.XLOOKUP(AU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -7499,15 +7637,15 @@
         <v>0</v>
       </c>
       <c r="BD6" s="9"/>
-      <c r="BE6" s="11">
+      <c r="BE6" s="12">
         <f>_xlfn.XLOOKUP(AU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BI6" s="9">
         <v>3</v>
@@ -7521,17 +7659,17 @@
         <v>0</v>
       </c>
       <c r="BL6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM6" s="11">
+        <v>79</v>
+      </c>
+      <c r="BM6" s="12">
         <f>_xlfn.XLOOKUP(AU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="BQ6" s="9">
         <v>3</v>
@@ -7545,44 +7683,60 @@
         <v>0</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU6" s="11">
+        <v>79</v>
+      </c>
+      <c r="BU6" s="12">
         <f>_xlfn.XLOOKUP(AU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BY6" s="9">
         <v>3</v>
       </c>
       <c r="BZ6" s="9">
         <f>IF(_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),AU_25[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA6" s="9">
         <f>IF(_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),AU_25[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB6" s="9"/>
-      <c r="CC6" s="11">
+      <c r="CC6" s="12">
         <f>_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Table1[[#This Row],[AH]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="CI6" s="16">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Table1[[#This Row],[AH]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="17">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E7" s="9">
         <v>3</v>
@@ -7596,42 +7750,42 @@
         <v>3</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="11">
+        <v>40</v>
+      </c>
+      <c r="I7" s="12">
         <f>_xlfn.XLOOKUP(ArtMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="14">
-        <v>3</v>
-      </c>
-      <c r="O7" s="14">
+        <v>43</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="18">
+        <v>3</v>
+      </c>
+      <c r="O7" s="18">
         <f>IF(_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Core[[#This Row],[AH]],0)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="18">
         <f>IF(_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Core[[#This Row],[AH]],0)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="15">
+      <c r="Q7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="19">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U7" s="9">
         <f>GameMinor[[#Totals],[AH]]</f>
@@ -7649,15 +7803,15 @@
         <f>GameMinor[[#Totals],[Grade]]</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="12">
         <f>IFERROR(Summary[[#This Row],[Points]]/Summary[[#This Row],[GH]],0)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>91</v>
+      <c r="AA7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="AC7" s="9">
         <v>3</v>
@@ -7671,18 +7825,18 @@
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG7" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG7" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AH7" s="9"/>
       <c r="AI7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AK7" s="9">
         <v>2</v>
@@ -7696,18 +7850,18 @@
         <v>2</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO7" s="11">
+        <v>34</v>
+      </c>
+      <c r="AO7" s="12">
         <f>_xlfn.XLOOKUP(AU_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AS7" s="9">
         <v>2</v>
@@ -7721,9 +7875,9 @@
         <v>0</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW7" s="11">
+        <v>79</v>
+      </c>
+      <c r="AW7" s="12">
         <f>_xlfn.XLOOKUP(AU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -7739,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="BD7" s="9"/>
-      <c r="BE7" s="11">
+      <c r="BE7" s="12">
         <f>_xlfn.XLOOKUP(AU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BF7" s="9"/>
       <c r="BG7" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BI7" s="9">
         <v>3</v>
@@ -7762,18 +7916,18 @@
         <v>3</v>
       </c>
       <c r="BL7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM7" s="11">
+        <v>63</v>
+      </c>
+      <c r="BM7" s="12">
         <f>_xlfn.XLOOKUP(AU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="BN7" s="9"/>
       <c r="BO7" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BQ7" s="9">
         <v>3</v>
@@ -7787,22 +7941,16 @@
         <v>0</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU7" s="11">
+        <v>79</v>
+      </c>
+      <c r="BU7" s="12">
         <f>_xlfn.XLOOKUP(AU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BV7" s="9"/>
-      <c r="BW7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>3</v>
-      </c>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="9"/>
       <c r="BZ7" s="9">
         <f>IF(_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),AU_25[[#This Row],[AH]],0)</f>
         <v>0</v>
@@ -7812,69 +7960,85 @@
         <v>0</v>
       </c>
       <c r="CB7" s="9"/>
-      <c r="CC7" s="11">
+      <c r="CC7" s="12">
         <f>_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD7" s="9"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="9">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Table1[[#This Row],[AH]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Table1[[#This Row],[AH]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="12">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="14">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14">
+        <v>104</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18">
         <f>IF(_xlfn.XLOOKUP(ArtMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),ArtMinor[[#This Row],[AH]],0)</f>
         <v>3</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="18">
         <f>IF(_xlfn.XLOOKUP(ArtMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),ArtMinor[[#This Row],[AH]],0)</f>
         <v>3</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="19">
         <f>_xlfn.XLOOKUP(ArtMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="14">
-        <v>3</v>
-      </c>
-      <c r="O8" s="14">
+        <v>67</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="18">
+        <v>3</v>
+      </c>
+      <c r="O8" s="18">
         <f>IF(_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Core[[#This Row],[AH]],0)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="18">
         <f>IF(_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Core[[#This Row],[AH]],0)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="15">
+      <c r="Q8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="19">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="U8" s="9">
@@ -7893,15 +8057,15 @@
         <f>SUM(ArtMinor[[#Totals],[Grade]],GameMinor[[#Totals],[Grade]],GenEd[[#Totals],[Grade]],Uncounted[[#Totals],[Grade]],Core[[#Totals],[Grade]],Electives[[#Totals],[Grade]],GenEng[[#Totals],[Grade]],NonMajor[[#Totals],[Grade]])</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="12">
         <f>IFERROR(Summary[[#This Row],[Points]]/Summary[[#This Row],[GH]],0)</f>
         <v>3.3148514851485151</v>
       </c>
-      <c r="AA8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AA8" s="14" t="s">
         <v>105</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="AC8" s="9">
         <v>3</v>
@@ -7915,18 +8079,18 @@
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG8" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AH8" s="9"/>
       <c r="AI8" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK8" s="9">
         <v>4</v>
@@ -7940,9 +8104,9 @@
         <v>0</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO8" s="11">
+        <v>109</v>
+      </c>
+      <c r="AO8" s="12">
         <f>_xlfn.XLOOKUP(AU_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -7958,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="9"/>
-      <c r="AW8" s="11">
+      <c r="AW8" s="12">
         <f>_xlfn.XLOOKUP(AU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -7974,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="9"/>
-      <c r="BE8" s="11">
+      <c r="BE8" s="12">
         <f>_xlfn.XLOOKUP(AU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -7990,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="9"/>
-      <c r="BM8" s="11">
+      <c r="BM8" s="12">
         <f>_xlfn.XLOOKUP(AU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -8006,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="BT8" s="9"/>
-      <c r="BU8" s="11">
+      <c r="BU8" s="12">
         <f>_xlfn.XLOOKUP(AU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -8022,11 +8186,27 @@
         <v>0</v>
       </c>
       <c r="CB8" s="9"/>
-      <c r="CC8" s="11">
+      <c r="CC8" s="12">
         <f>_xlfn.XLOOKUP(AU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD8" s="9"/>
+      <c r="CE8" s="15"/>
+      <c r="CF8" s="15"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Table1[[#This Row],[AH]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="CI8" s="16">
+        <f>IF(_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Table1[[#This Row],[AH]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="17">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="9" ht="17.100000000000001">
       <c r="B9" s="4"/>
@@ -8048,19 +8228,19 @@
         <f>ArtMinor[[#Totals],[GPA]]*ArtMinor[[#Totals],[GH]]</f>
         <v>57</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="13">
         <f t="array" ref="I9">IFERROR(SUM(ArtMinor[GPA]*ArtMinor[GH])/ArtMinor[[#Totals],[GH]],0)</f>
         <v>3.7999999999999998</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N9" s="9">
         <v>4</v>
@@ -8074,15 +8254,15 @@
         <v>0</v>
       </c>
       <c r="Q9" s="9"/>
-      <c r="R9" s="11">
+      <c r="R9" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AA9" s="14" t="s">
         <v>113</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="AC9" s="9">
         <v>3</v>
@@ -8096,15 +8276,15 @@
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG9" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG9" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AH9" s="9"/>
       <c r="AI9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="4">
@@ -8123,13 +8303,13 @@
         <f>AU_20[[#Totals],[GPA]]*AU_20[[#Totals],[GH]]</f>
         <v>28.5</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AO9" s="13">
         <f t="array" ref="AO9">IFERROR(SUM(AU_20[GPA]*AU_20[GH])/AU_20[[#Totals],[GH]],0)</f>
         <v>3.5625</v>
       </c>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AR9" s="9"/>
       <c r="AS9" s="4">
@@ -8148,13 +8328,13 @@
         <f>AU_21[[#Totals],[GPA]]*AU_21[[#Totals],[GH]]</f>
         <v>10</v>
       </c>
-      <c r="AW9" s="12">
+      <c r="AW9" s="13">
         <f t="array" ref="AW9">IFERROR(SUM(AU_21[GPA]*AU_21[GH])/AU_21[[#Totals],[GH]],0)</f>
         <v>1.25</v>
       </c>
       <c r="AX9" s="9"/>
       <c r="AY9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="4">
@@ -8173,13 +8353,13 @@
         <f>AU_22[[#Totals],[GPA]]*AU_22[[#Totals],[GH]]</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="BE9" s="12">
+      <c r="BE9" s="13">
         <f t="array" ref="BE9">IFERROR(SUM(AU_22[GPA]*AU_22[GH])/AU_22[[#Totals],[GH]],0)</f>
         <v>3.3500000000000001</v>
       </c>
       <c r="BF9" s="9"/>
       <c r="BG9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BH9" s="9"/>
       <c r="BI9" s="4">
@@ -8198,13 +8378,13 @@
         <f>AU_23[[#Totals],[GPA]]*AU_23[[#Totals],[GH]]</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="BM9" s="12">
+      <c r="BM9" s="13">
         <f t="array" ref="BM9">IFERROR(SUM(AU_23[GPA]*AU_23[GH])/AU_23[[#Totals],[GH]],0)</f>
         <v>3.8200000000000003</v>
       </c>
       <c r="BN9" s="9"/>
       <c r="BO9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BP9" s="9"/>
       <c r="BQ9" s="4">
@@ -8223,48 +8403,72 @@
         <f>AU_24[[#Totals],[GPA]]*AU_24[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="BU9" s="12">
+      <c r="BU9" s="13">
         <f t="array" ref="BU9">IFERROR(SUM(AU_24[GPA]*AU_24[GH])/AU_24[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
       <c r="BV9" s="9"/>
       <c r="BW9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BX9" s="9"/>
       <c r="BY9" s="4">
         <f>SUBTOTAL(109,AU_25[AH])</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BZ9" s="9">
         <f>SUBTOTAL(109,AU_25[EH])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CA9" s="4">
         <f>SUBTOTAL(109,AU_25[GH])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CB9" s="4">
         <f>AU_25[[#Totals],[GPA]]*AU_25[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="CC9" s="12">
+      <c r="CC9" s="13">
         <f t="array" ref="CC9">IFERROR(SUM(AU_25[GPA]*AU_25[GH])/AU_25[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
       <c r="CD9" s="9"/>
+      <c r="CE9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="4">
+        <f>SUBTOTAL(109,Table1[AH])</f>
+        <v>6</v>
+      </c>
+      <c r="CH9" s="9">
+        <f>SUBTOTAL(109,Table1[EH])</f>
+        <v>6</v>
+      </c>
+      <c r="CI9" s="4">
+        <f>SUBTOTAL(109,Table1[GH])</f>
+        <v>6</v>
+      </c>
+      <c r="CJ9" s="4">
+        <f>Table1[[#Totals],[GPA]]*Table1[[#Totals],[GH]]</f>
+        <v>24</v>
+      </c>
+      <c r="CK9" s="13">
+        <f t="array" ref="CK9">IFERROR(SUM(Table1[GPA]*Table1[GH])/Table1[[#Totals],[GH]],0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" ht="17.100000000000001">
       <c r="D10" s="9"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="20"/>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N10" s="9">
         <v>3</v>
@@ -8278,15 +8482,15 @@
         <v>0</v>
       </c>
       <c r="Q10" s="9"/>
-      <c r="R10" s="11">
+      <c r="R10" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AA10" s="14" t="s">
         <v>117</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="AC10" s="9">
         <v>3</v>
@@ -8300,160 +8504,184 @@
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG10" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG10" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="19">
+      <c r="AI10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="23">
         <f>AU_20[[#Totals],[AH]]+AC38</f>
         <v>94</v>
       </c>
-      <c r="AL10" s="19">
+      <c r="AL10" s="23">
         <f>AU_20[[#Totals],[EH]]+AD38</f>
         <v>84</v>
       </c>
-      <c r="AM10" s="19">
+      <c r="AM10" s="23">
         <f>AU_20[[#Totals],[GH]]+AE38</f>
         <v>26</v>
       </c>
-      <c r="AN10" s="19">
+      <c r="AN10" s="23">
         <f>AU_20[[#Totals],[Grade]]+AF38</f>
         <v>93.099999999999994</v>
       </c>
-      <c r="AO10" s="20">
+      <c r="AO10" s="24">
         <f>AN10/AM10</f>
         <v>3.5807692307692305</v>
       </c>
-      <c r="AQ10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="23">
+      <c r="AQ10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="27">
         <f>AU_21[[#Totals],[AH]]+AK30</f>
         <v>126</v>
       </c>
-      <c r="AT10" s="23">
+      <c r="AT10" s="27">
         <f>AU_21[[#Totals],[EH]]+AL30</f>
         <v>107</v>
       </c>
-      <c r="AU10" s="23">
+      <c r="AU10" s="27">
         <f>AU_21[[#Totals],[GH]]+AM30</f>
         <v>52</v>
       </c>
-      <c r="AV10" s="23">
+      <c r="AV10" s="27">
         <f>AU_21[[#Totals],[Grade]]+AN30</f>
         <v>165.80000000000001</v>
       </c>
-      <c r="AW10" s="24">
+      <c r="AW10" s="28">
         <f>AV10/AU10</f>
         <v>3.1884615384615387</v>
       </c>
-      <c r="AY10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="23">
+      <c r="AY10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="27">
         <f>AU_22[[#Totals],[AH]]+AS30</f>
         <v>138</v>
       </c>
-      <c r="BB10" s="23">
+      <c r="BB10" s="27">
         <f>AU_22[[#Totals],[EH]]+AT30</f>
         <v>119</v>
       </c>
-      <c r="BC10" s="23">
+      <c r="BC10" s="27">
         <f>AU_22[[#Totals],[GH]]+AU30</f>
         <v>64</v>
       </c>
-      <c r="BD10" s="23">
+      <c r="BD10" s="27">
         <f>AU_22[[#Totals],[Grade]]+AV30</f>
         <v>198.5</v>
       </c>
-      <c r="BE10" s="24">
+      <c r="BE10" s="28">
         <f>BD10/BC10</f>
         <v>3.1015625</v>
       </c>
-      <c r="BG10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="23">
+      <c r="BG10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="27">
         <f>AU_23[[#Totals],[AH]]+BA30</f>
         <v>162</v>
       </c>
-      <c r="BJ10" s="23">
+      <c r="BJ10" s="27">
         <f>AU_23[[#Totals],[EH]]+BB30</f>
         <v>140</v>
       </c>
-      <c r="BK10" s="23">
+      <c r="BK10" s="27">
         <f>AU_23[[#Totals],[GH]]+BC30</f>
         <v>85</v>
       </c>
-      <c r="BL10" s="23">
+      <c r="BL10" s="27">
         <f>AU_23[[#Totals],[Grade]]+BD30</f>
         <v>273.80000000000001</v>
       </c>
-      <c r="BM10" s="24">
+      <c r="BM10" s="28">
         <f>BL10/BK10</f>
         <v>3.2211764705882353</v>
       </c>
-      <c r="BO10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="23">
+      <c r="BO10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP10" s="26"/>
+      <c r="BQ10" s="27">
         <f>AU_24[[#Totals],[AH]]+BI30</f>
         <v>191</v>
       </c>
-      <c r="BR10" s="23">
+      <c r="BR10" s="27">
         <f>AU_24[[#Totals],[EH]]+BJ30</f>
         <v>156</v>
       </c>
-      <c r="BS10" s="23">
+      <c r="BS10" s="27">
         <f>AU_24[[#Totals],[GH]]+BK30</f>
         <v>101</v>
       </c>
-      <c r="BT10" s="23">
+      <c r="BT10" s="27">
         <f>AU_24[[#Totals],[Grade]]+BL30</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="BU10" s="24">
+      <c r="BU10" s="28">
         <f>BT10/BS10</f>
         <v>3.3148514851485151</v>
       </c>
-      <c r="BW10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BX10" s="22"/>
-      <c r="BY10" s="23">
+      <c r="BW10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX10" s="26"/>
+      <c r="BY10" s="27">
         <f>AU_25[[#Totals],[AH]]+BQ30</f>
-        <v>214</v>
-      </c>
-      <c r="BZ10" s="23">
+        <v>211</v>
+      </c>
+      <c r="BZ10" s="27">
         <f>AU_25[[#Totals],[EH]]+BR30</f>
-        <v>156</v>
-      </c>
-      <c r="CA10" s="23">
+        <v>165</v>
+      </c>
+      <c r="CA10" s="27">
         <f>AU_25[[#Totals],[GH]]+BS30</f>
-        <v>101</v>
-      </c>
-      <c r="CB10" s="23">
+        <v>110</v>
+      </c>
+      <c r="CB10" s="27">
         <f>AU_25[[#Totals],[Grade]]+BT30</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="CC10" s="24">
+      <c r="CC10" s="28">
         <f>CB10/CA10</f>
-        <v>3.3148514851485151</v>
+        <v>3.0436363636363639</v>
+      </c>
+      <c r="CE10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="CF10" s="30"/>
+      <c r="CG10" s="31" t="e">
+        <f>Table1[[#Totals],[AH]]+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CH10" s="31" t="e">
+        <f>Table1[[#Totals],[EH]]+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CI10" s="31" t="e">
+        <f>Table1[[#Totals],[GH]]+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CJ10" s="31" t="e">
+        <f>Table1[[#Totals],[Grade]]+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CK10" s="32" t="e">
+        <f>CJ10/CI10</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -8463,13 +8691,13 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="K11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
@@ -8483,15 +8711,15 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9"/>
-      <c r="R11" s="11">
+      <c r="R11" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AA11" s="14" t="s">
         <v>124</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="AC11" s="9">
         <v>3</v>
@@ -8505,46 +8733,46 @@
         <v>0</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG11" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N12" s="9">
         <v>4</v>
@@ -8558,15 +8786,15 @@
         <v>0</v>
       </c>
       <c r="Q12" s="9"/>
-      <c r="R12" s="11">
+      <c r="R12" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AA12" s="14" t="s">
         <v>128</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="AC12" s="9">
         <v>5</v>
@@ -8580,14 +8808,14 @@
         <v>0</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG12" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG12" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
@@ -8596,7 +8824,7 @@
       <c r="AN12" s="6"/>
       <c r="AO12" s="7"/>
       <c r="AQ12" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
@@ -8605,7 +8833,7 @@
       <c r="AV12" s="6"/>
       <c r="AW12" s="7"/>
       <c r="AY12" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
@@ -8614,7 +8842,7 @@
       <c r="BD12" s="6"/>
       <c r="BE12" s="7"/>
       <c r="BG12" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BH12" s="6"/>
       <c r="BI12" s="6"/>
@@ -8623,7 +8851,7 @@
       <c r="BL12" s="6"/>
       <c r="BM12" s="7"/>
       <c r="BO12" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BP12" s="6"/>
       <c r="BQ12" s="6"/>
@@ -8632,7 +8860,7 @@
       <c r="BT12" s="6"/>
       <c r="BU12" s="7"/>
       <c r="BW12" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BX12" s="6"/>
       <c r="BY12" s="6"/>
@@ -8643,13 +8871,13 @@
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E13" s="9">
         <v>3</v>
@@ -8663,20 +8891,20 @@
         <v>0</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="11">
+        <v>79</v>
+      </c>
+      <c r="I13" s="12">
         <f>_xlfn.XLOOKUP(AnimationMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N13" s="9">
         <v>3</v>
@@ -8690,15 +8918,15 @@
         <v>0</v>
       </c>
       <c r="Q13" s="9"/>
-      <c r="R13" s="11">
+      <c r="R13" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AA13" s="14" t="s">
         <v>136</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="AC13" s="9">
         <v>3</v>
@@ -8712,155 +8940,155 @@
         <v>0</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG13" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG13" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" s="10"/>
       <c r="AQ13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX13" s="10"/>
       <c r="AY13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF13" s="10"/>
       <c r="BG13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BL13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BM13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BN13" s="10"/>
       <c r="BO13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BQ13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BR13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BT13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BU13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BV13" s="10"/>
       <c r="BW13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BX13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BY13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BZ13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CA13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CB13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CD13" s="10"/>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -8874,20 +9102,20 @@
         <v>0</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="11">
+        <v>79</v>
+      </c>
+      <c r="I14" s="12">
         <f>_xlfn.XLOOKUP(AnimationMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N14" s="9">
         <v>3</v>
@@ -8901,17 +9129,17 @@
         <v>0</v>
       </c>
       <c r="Q14" s="9"/>
-      <c r="R14" s="11">
+      <c r="R14" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="T14" s="9"/>
-      <c r="V14" s="16"/>
-      <c r="AA14" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB14" s="13" t="s">
+      <c r="V14" s="20"/>
+      <c r="AA14" s="14" t="s">
         <v>140</v>
+      </c>
+      <c r="AB14" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="AC14" s="9">
         <v>3</v>
@@ -8925,17 +9153,17 @@
         <v>0</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG14" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG14" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" s="9">
         <v>3</v>
@@ -8949,17 +9177,17 @@
         <v>3</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO14" s="11">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="12">
         <f>_xlfn.XLOOKUP(SP_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AS14" s="9">
         <v>4</v>
@@ -8973,17 +9201,17 @@
         <v>4</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW14" s="11">
+        <v>144</v>
+      </c>
+      <c r="AW14" s="12">
         <f>_xlfn.XLOOKUP(SP_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>1.3</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="BA14" s="9">
         <v>5</v>
@@ -8997,17 +9225,17 @@
         <v>5</v>
       </c>
       <c r="BD14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE14" s="11">
+        <v>24</v>
+      </c>
+      <c r="BE14" s="12">
         <f>_xlfn.XLOOKUP(SP_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BI14" s="9">
         <v>4</v>
@@ -9021,17 +9249,17 @@
         <v>4</v>
       </c>
       <c r="BL14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM14" s="11">
+        <v>24</v>
+      </c>
+      <c r="BM14" s="12">
         <f>_xlfn.XLOOKUP(SP_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BQ14" s="9">
         <v>3</v>
@@ -9045,31 +9273,31 @@
         <v>0</v>
       </c>
       <c r="BT14" s="9"/>
-      <c r="BU14" s="11">
+      <c r="BU14" s="12">
         <f>_xlfn.XLOOKUP(SP_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BY14" s="9">
         <v>3</v>
       </c>
       <c r="BZ14" s="9">
         <f>IF(_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),SP_26[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA14" s="9">
         <f>IF(_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),SP_26[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB14" s="9"/>
-      <c r="CC14" s="11">
+      <c r="CC14" s="12">
         <f>_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -9092,18 +9320,18 @@
         <f>AnimationMinor[[#Totals],[GPA]]*AnimationMinor[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="13">
         <f t="array" ref="I15">IFERROR(SUM(AnimationMinor[GPA]*AnimationMinor[GH])/AnimationMinor[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N15" s="9">
         <v>3</v>
@@ -9117,18 +9345,18 @@
         <v>0</v>
       </c>
       <c r="Q15" s="9"/>
-      <c r="R15" s="11">
+      <c r="R15" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="S15" s="25"/>
+      <c r="S15" s="33"/>
       <c r="T15" s="9"/>
-      <c r="V15" s="16"/>
-      <c r="AA15" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB15" s="13" t="s">
+      <c r="V15" s="20"/>
+      <c r="AA15" s="14" t="s">
         <v>149</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="AC15" s="9">
         <v>3</v>
@@ -9142,18 +9370,18 @@
         <v>0</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG15" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AK15" s="9">
         <v>3</v>
@@ -9167,18 +9395,18 @@
         <v>3</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO15" s="11">
+        <v>24</v>
+      </c>
+      <c r="AO15" s="12">
         <f>_xlfn.XLOOKUP(SP_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS15" s="9">
         <v>2</v>
@@ -9192,18 +9420,18 @@
         <v>2</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW15" s="11">
+        <v>63</v>
+      </c>
+      <c r="AW15" s="12">
         <f>_xlfn.XLOOKUP(SP_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="AX15" s="9"/>
       <c r="AY15" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BA15" s="9">
         <v>3</v>
@@ -9217,18 +9445,18 @@
         <v>3</v>
       </c>
       <c r="BD15" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE15" s="11">
+        <v>155</v>
+      </c>
+      <c r="BE15" s="12">
         <f>_xlfn.XLOOKUP(SP_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>1.7</v>
       </c>
       <c r="BF15" s="9"/>
       <c r="BG15" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BI15" s="9">
         <v>3</v>
@@ -9242,18 +9470,18 @@
         <v>3</v>
       </c>
       <c r="BL15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM15" s="11">
+        <v>63</v>
+      </c>
+      <c r="BM15" s="12">
         <f>_xlfn.XLOOKUP(SP_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="BN15" s="9"/>
       <c r="BO15" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BQ15" s="9">
         <v>4</v>
@@ -9267,32 +9495,32 @@
         <v>0</v>
       </c>
       <c r="BT15" s="9"/>
-      <c r="BU15" s="11">
+      <c r="BU15" s="12">
         <f>_xlfn.XLOOKUP(SP_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BV15" s="9"/>
       <c r="BW15" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BY15" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BZ15" s="9">
         <f>IF(_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),SP_26[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA15" s="9">
         <f>IF(_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),SP_26[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB15" s="9"/>
-      <c r="CC15" s="11">
+      <c r="CC15" s="12">
         <f>_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD15" s="9"/>
     </row>
@@ -9302,15 +9530,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N16" s="9">
         <v>4</v>
@@ -9324,17 +9552,17 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9"/>
-      <c r="R16" s="11">
+      <c r="R16" s="12">
         <f>_xlfn.XLOOKUP(Core[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="T16" s="9"/>
-      <c r="V16" s="16"/>
-      <c r="AA16" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>161</v>
+      <c r="V16" s="20"/>
+      <c r="AA16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="AC16" s="9">
         <v>3</v>
@@ -9348,17 +9576,17 @@
         <v>0</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG16" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="12">
         <f>_xlfn.XLOOKUP(HS[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK16" s="9">
         <v>4</v>
@@ -9372,9 +9600,9 @@
         <v>4</v>
       </c>
       <c r="AN16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO16" s="11">
+        <v>40</v>
+      </c>
+      <c r="AO16" s="12">
         <f>_xlfn.XLOOKUP(SP_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3</v>
       </c>
@@ -9389,15 +9617,15 @@
         <v>0</v>
       </c>
       <c r="AV16" s="9"/>
-      <c r="AW16" s="11">
+      <c r="AW16" s="12">
         <f>_xlfn.XLOOKUP(SP_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BA16" s="9">
         <v>3</v>
@@ -9411,17 +9639,17 @@
         <v>3</v>
       </c>
       <c r="BD16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE16" s="11">
+        <v>24</v>
+      </c>
+      <c r="BE16" s="12">
         <f>_xlfn.XLOOKUP(SP_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BI16" s="9">
         <v>3</v>
@@ -9435,17 +9663,17 @@
         <v>3</v>
       </c>
       <c r="BL16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM16" s="11">
+        <v>24</v>
+      </c>
+      <c r="BM16" s="12">
         <f>_xlfn.XLOOKUP(SP_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="BO16" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BP16" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BQ16" s="9">
         <v>3</v>
@@ -9459,19 +9687,13 @@
         <v>0</v>
       </c>
       <c r="BT16" s="9"/>
-      <c r="BU16" s="11">
+      <c r="BU16" s="12">
         <f>_xlfn.XLOOKUP(SP_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BW16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BX16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY16" s="9">
-        <v>4</v>
-      </c>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="9"/>
       <c r="BZ16" s="9">
         <f>IF(_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),SP_26[[#This Row],[AH]],0)</f>
         <v>0</v>
@@ -9481,9 +9703,9 @@
         <v>0</v>
       </c>
       <c r="CB16" s="9"/>
-      <c r="CC16" s="11">
+      <c r="CC16" s="12">
         <f>_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" ht="17.100000000000001">
@@ -9492,7 +9714,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="12"/>
       <c r="K17" s="4"/>
       <c r="L17" s="9"/>
       <c r="M17" s="4"/>
@@ -9512,12 +9734,12 @@
         <f>Core[[#Totals],[GPA]]*Core[[#Totals],[GH]]</f>
         <v>43.100000000000001</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="13">
         <f t="array" ref="R17">IFERROR(SUM(Core[GPA]*Core[GH])/Core[[#Totals],[GH]],0)</f>
         <v>3.9181818181818184</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="4">
@@ -9536,16 +9758,16 @@
         <f>HS[[#Totals],[GPA]]*HS[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AG17" s="13">
         <f t="array" ref="AG17">IFERROR(SUM(HS[GPA]*HS[GH])/HS[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="9"/>
       <c r="AI17" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK17" s="9">
         <v>2</v>
@@ -9559,9 +9781,9 @@
         <v>2</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO17" s="11">
+        <v>34</v>
+      </c>
+      <c r="AO17" s="12">
         <f>_xlfn.XLOOKUP(SP_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
@@ -9577,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="AV17" s="9"/>
-      <c r="AW17" s="11">
+      <c r="AW17" s="12">
         <f>_xlfn.XLOOKUP(SP_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -9593,16 +9815,16 @@
         <v>0</v>
       </c>
       <c r="BD17" s="9"/>
-      <c r="BE17" s="11">
+      <c r="BE17" s="12">
         <f>_xlfn.XLOOKUP(SP_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BF17" s="9"/>
       <c r="BG17" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BI17" s="9">
         <v>3</v>
@@ -9616,9 +9838,9 @@
         <v>3</v>
       </c>
       <c r="BL17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM17" s="11">
+        <v>34</v>
+      </c>
+      <c r="BM17" s="12">
         <f>_xlfn.XLOOKUP(SP_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
@@ -9634,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="BT17" s="9"/>
-      <c r="BU17" s="11">
+      <c r="BU17" s="12">
         <f>_xlfn.XLOOKUP(SP_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -9650,12 +9872,12 @@
         <v>0</v>
       </c>
       <c r="CB17" s="9"/>
-      <c r="CC17" s="11">
+      <c r="CC17" s="12">
         <f>_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD17" s="9"/>
-      <c r="CE17" s="26"/>
+      <c r="CE17" s="34"/>
       <c r="CG17" s="9"/>
     </row>
     <row r="18" ht="17.100000000000001">
@@ -9664,39 +9886,39 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="19">
+      <c r="I18" s="12"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="23">
         <f>HS[[#Totals],[AH]]</f>
         <v>42</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="22">
         <f>HS[[#Totals],[EH]]</f>
         <v>42</v>
       </c>
-      <c r="AE18" s="19">
+      <c r="AE18" s="23">
         <f>HS[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="19">
+      <c r="AF18" s="23">
         <f>HS[[#Totals],[Grade]]</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="20">
+      <c r="AG18" s="24">
         <f>HS[[#Totals],[GPA]]</f>
         <v>0</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK18" s="9">
         <v>3</v>
@@ -9710,9 +9932,9 @@
         <v>3</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO18" s="11">
+        <v>174</v>
+      </c>
+      <c r="AO18" s="12">
         <f>_xlfn.XLOOKUP(SP_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>2.7000000000000002</v>
       </c>
@@ -9727,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="AV18" s="9"/>
-      <c r="AW18" s="11">
+      <c r="AW18" s="12">
         <f>_xlfn.XLOOKUP(SP_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -9742,15 +9964,15 @@
         <v>0</v>
       </c>
       <c r="BD18" s="9"/>
-      <c r="BE18" s="11">
+      <c r="BE18" s="12">
         <f>_xlfn.XLOOKUP(SP_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BI18" s="9">
         <v>3</v>
@@ -9764,9 +9986,9 @@
         <v>3</v>
       </c>
       <c r="BL18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM18" s="11">
+        <v>24</v>
+      </c>
+      <c r="BM18" s="12">
         <f>_xlfn.XLOOKUP(SP_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
@@ -9781,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="BT18" s="9"/>
-      <c r="BU18" s="11">
+      <c r="BU18" s="12">
         <f>_xlfn.XLOOKUP(SP_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -9796,9 +10018,9 @@
         <v>0</v>
       </c>
       <c r="CB18" s="9"/>
-      <c r="CC18" s="11">
+      <c r="CC18" s="12">
         <f>_xlfn.XLOOKUP(SP_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" ht="17.100000000000001">
@@ -9807,9 +10029,9 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="12"/>
       <c r="K19" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -9820,7 +10042,7 @@
       <c r="R19" s="7"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="4">
@@ -9839,13 +10061,13 @@
         <f>SP_21[[#Totals],[GPA]]*SP_21[[#Totals],[GH]]</f>
         <v>50.700000000000003</v>
       </c>
-      <c r="AO19" s="12">
+      <c r="AO19" s="13">
         <f t="array" ref="AO19">IFERROR(SUM(SP_21[GPA]*SP_21[GH])/SP_21[[#Totals],[GH]],0)</f>
         <v>3.3800000000000003</v>
       </c>
       <c r="AP19" s="8"/>
       <c r="AQ19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AR19" s="9"/>
       <c r="AS19" s="4">
@@ -9864,13 +10086,13 @@
         <f>SP_22[[#Totals],[GPA]]*SP_22[[#Totals],[GH]]</f>
         <v>12.600000000000001</v>
       </c>
-      <c r="AW19" s="12">
+      <c r="AW19" s="13">
         <f t="array" ref="AW19">IFERROR(SUM(SP_22[GPA]*SP_22[GH])/SP_22[[#Totals],[GH]],0)</f>
         <v>2.1000000000000001</v>
       </c>
       <c r="AX19" s="8"/>
       <c r="AY19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AZ19" s="9"/>
       <c r="BA19" s="4">
@@ -9889,13 +10111,13 @@
         <f>SP_23[[#Totals],[GPA]]*SP_23[[#Totals],[GH]]</f>
         <v>37.100000000000001</v>
       </c>
-      <c r="BE19" s="12">
+      <c r="BE19" s="13">
         <f t="array" ref="BE19">IFERROR(SUM(SP_23[GPA]*SP_23[GH])/SP_23[[#Totals],[GH]],0)</f>
         <v>3.372727272727273</v>
       </c>
       <c r="BF19" s="8"/>
       <c r="BG19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BH19" s="9"/>
       <c r="BI19" s="4">
@@ -9914,13 +10136,13 @@
         <f>SP_24[[#Totals],[GPA]]*SP_24[[#Totals],[GH]]</f>
         <v>61</v>
       </c>
-      <c r="BM19" s="12">
+      <c r="BM19" s="13">
         <f t="array" ref="BM19">IFERROR(SUM(SP_24[GPA]*SP_24[GH])/SP_24[[#Totals],[GH]],0)</f>
         <v>3.8125</v>
       </c>
       <c r="BN19" s="8"/>
       <c r="BO19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BP19" s="9"/>
       <c r="BQ19" s="4">
@@ -9939,32 +10161,32 @@
         <f>SP_25[[#Totals],[GPA]]*SP_25[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="BU19" s="12">
+      <c r="BU19" s="13">
         <f t="array" ref="BU19">IFERROR(SUM(SP_25[GPA]*SP_25[GH])/SP_25[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
       <c r="BV19" s="8"/>
       <c r="BW19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BX19" s="9"/>
       <c r="BY19" s="4">
         <f>SUBTOTAL(109,SP_26[AH])</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ19" s="9">
         <f>SUBTOTAL(109,SP_26[EH])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CA19" s="4">
         <f>SUBTOTAL(109,SP_26[GH])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CB19" s="4">
         <f>SP_26[[#Totals],[GPA]]*SP_26[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="CC19" s="12">
+      <c r="CC19" s="13">
         <f t="array" ref="CC19">IFERROR(SUM(SP_26[GPA]*SP_26[GH])/SP_26[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
@@ -9972,31 +10194,31 @@
     </row>
     <row r="20" ht="17.100000000000001">
       <c r="K20" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -10005,160 +10227,160 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="9"/>
-      <c r="AI20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="19">
+      <c r="AI20" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="23">
         <f>SP_21[[#Totals],[AH]]+AK10</f>
         <v>109</v>
       </c>
-      <c r="AL20" s="19">
+      <c r="AL20" s="23">
         <f>SP_21[[#Totals],[EH]]+AL10</f>
         <v>99</v>
       </c>
-      <c r="AM20" s="19">
+      <c r="AM20" s="23">
         <f>SP_21[[#Totals],[GH]]+AM10</f>
         <v>41</v>
       </c>
-      <c r="AN20" s="19">
+      <c r="AN20" s="23">
         <f>SP_21[[#Totals],[Grade]]+AN10</f>
         <v>143.80000000000001</v>
       </c>
-      <c r="AO20" s="20">
+      <c r="AO20" s="24">
         <f>AN20/AM20</f>
         <v>3.5073170731707322</v>
       </c>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR20" s="22"/>
-      <c r="AS20" s="23">
+      <c r="AQ20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="27">
         <f>SP_22[[#Totals],[AH]]+AS10</f>
         <v>132</v>
       </c>
-      <c r="AT20" s="23">
+      <c r="AT20" s="27">
         <f>SP_22[[#Totals],[EH]]+AT10</f>
         <v>113</v>
       </c>
-      <c r="AU20" s="23">
+      <c r="AU20" s="27">
         <f>SP_22[[#Totals],[GH]]+AU10</f>
         <v>58</v>
       </c>
-      <c r="AV20" s="23">
+      <c r="AV20" s="27">
         <f>SP_22[[#Totals],[Grade]]+AV10</f>
         <v>178.40000000000001</v>
       </c>
-      <c r="AW20" s="24">
+      <c r="AW20" s="28">
         <f>AV20/AU20</f>
         <v>3.0758620689655172</v>
       </c>
       <c r="AX20" s="9"/>
-      <c r="AY20" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="23">
+      <c r="AY20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="27">
         <f>SP_23[[#Totals],[AH]]+BA10</f>
         <v>149</v>
       </c>
-      <c r="BB20" s="23">
+      <c r="BB20" s="27">
         <f>SP_23[[#Totals],[EH]]+BB10</f>
         <v>130</v>
       </c>
-      <c r="BC20" s="23">
+      <c r="BC20" s="27">
         <f>SP_23[[#Totals],[GH]]+BC10</f>
         <v>75</v>
       </c>
-      <c r="BD20" s="23">
+      <c r="BD20" s="27">
         <f>SP_23[[#Totals],[Grade]]+BD10</f>
         <v>235.59999999999999</v>
       </c>
-      <c r="BE20" s="24">
+      <c r="BE20" s="28">
         <f>BD20/BC20</f>
         <v>3.1413333333333333</v>
       </c>
       <c r="BF20" s="9"/>
-      <c r="BG20" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BH20" s="22"/>
-      <c r="BI20" s="23">
+      <c r="BG20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="27">
         <f>SP_24[[#Totals],[AH]]+BI10</f>
         <v>178</v>
       </c>
-      <c r="BJ20" s="23">
+      <c r="BJ20" s="27">
         <f>SP_24[[#Totals],[EH]]+BJ10</f>
         <v>156</v>
       </c>
-      <c r="BK20" s="23">
+      <c r="BK20" s="27">
         <f>SP_24[[#Totals],[GH]]+BK10</f>
         <v>101</v>
       </c>
-      <c r="BL20" s="23">
+      <c r="BL20" s="27">
         <f>SP_24[[#Totals],[Grade]]+BL10</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="BM20" s="24">
+      <c r="BM20" s="28">
         <f>BL20/BK20</f>
         <v>3.3148514851485151</v>
       </c>
       <c r="BN20" s="9"/>
-      <c r="BO20" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP20" s="22"/>
-      <c r="BQ20" s="23">
+      <c r="BO20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP20" s="26"/>
+      <c r="BQ20" s="27">
         <f>SP_25[[#Totals],[AH]]+BQ10</f>
         <v>201</v>
       </c>
-      <c r="BR20" s="23">
+      <c r="BR20" s="27">
         <f>SP_25[[#Totals],[EH]]+BR10</f>
         <v>156</v>
       </c>
-      <c r="BS20" s="23">
+      <c r="BS20" s="27">
         <f>SP_25[[#Totals],[GH]]+BS10</f>
         <v>101</v>
       </c>
-      <c r="BT20" s="23">
+      <c r="BT20" s="27">
         <f>SP_25[[#Totals],[Grade]]+BT10</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="BU20" s="24">
+      <c r="BU20" s="28">
         <f>BT20/BS20</f>
         <v>3.3148514851485151</v>
       </c>
       <c r="BV20" s="9"/>
-      <c r="BW20" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BX20" s="22"/>
-      <c r="BY20" s="23">
+      <c r="BW20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX20" s="26"/>
+      <c r="BY20" s="27">
         <f>SP_26[[#Totals],[AH]]+BY10</f>
-        <v>224</v>
-      </c>
-      <c r="BZ20" s="23">
+        <v>218</v>
+      </c>
+      <c r="BZ20" s="27">
         <f>SP_26[[#Totals],[EH]]+BZ10</f>
-        <v>156</v>
-      </c>
-      <c r="CA20" s="23">
+        <v>172</v>
+      </c>
+      <c r="CA20" s="27">
         <f>SP_26[[#Totals],[GH]]+CA10</f>
-        <v>101</v>
-      </c>
-      <c r="CB20" s="23">
+        <v>117</v>
+      </c>
+      <c r="CB20" s="27">
         <f>SP_26[[#Totals],[Grade]]+CB10</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="CC20" s="24">
+      <c r="CC20" s="28">
         <f>CB20/CA20</f>
-        <v>3.3148514851485151</v>
+        <v>2.8615384615384616</v>
       </c>
       <c r="CD20" s="9"/>
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -10168,13 +10390,13 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N21" s="9">
         <v>3</v>
@@ -10188,79 +10410,79 @@
         <v>0</v>
       </c>
       <c r="Q21" s="9"/>
-      <c r="R21" s="11">
+      <c r="R21" s="12">
         <f>_xlfn.XLOOKUP(Electives[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH21" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="9"/>
-      <c r="AP21" s="11"/>
+      <c r="AP21" s="12"/>
       <c r="AQ21" s="9"/>
-      <c r="AV21" s="27"/>
-      <c r="AX21" s="11"/>
+      <c r="AV21" s="35"/>
+      <c r="AX21" s="12"/>
       <c r="AY21" s="9"/>
-      <c r="BF21" s="11"/>
+      <c r="BF21" s="12"/>
       <c r="BG21" s="9"/>
-      <c r="BN21" s="11"/>
+      <c r="BN21" s="12"/>
       <c r="BO21" s="9"/>
-      <c r="BV21" s="11"/>
+      <c r="BV21" s="12"/>
       <c r="BW21" s="9"/>
-      <c r="CD21" s="11"/>
+      <c r="CD21" s="12"/>
     </row>
     <row r="22" ht="14.449999999999999" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N22" s="9">
         <v>3</v>
@@ -10274,15 +10496,15 @@
         <v>0</v>
       </c>
       <c r="Q22" s="9"/>
-      <c r="R22" s="11">
+      <c r="R22" s="12">
         <f>_xlfn.XLOOKUP(Electives[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AC22" s="9">
         <v>5</v>
@@ -10296,15 +10518,15 @@
         <v>5</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG22" s="11">
+        <v>63</v>
+      </c>
+      <c r="AG22" s="12">
         <f>_xlfn.XLOOKUP(AU_19[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
-      <c r="AH22" s="15"/>
+      <c r="AH22" s="19"/>
       <c r="AI22" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -10312,9 +10534,9 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="7"/>
-      <c r="AP22" s="15"/>
+      <c r="AP22" s="19"/>
       <c r="AQ22" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -10322,9 +10544,9 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="6"/>
       <c r="AW22" s="7"/>
-      <c r="AX22" s="15"/>
+      <c r="AX22" s="19"/>
       <c r="AY22" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AZ22" s="6"/>
       <c r="BA22" s="6"/>
@@ -10332,9 +10554,9 @@
       <c r="BC22" s="6"/>
       <c r="BD22" s="6"/>
       <c r="BE22" s="7"/>
-      <c r="BF22" s="15"/>
+      <c r="BF22" s="19"/>
       <c r="BG22" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BH22" s="6"/>
       <c r="BI22" s="6"/>
@@ -10342,9 +10564,9 @@
       <c r="BK22" s="6"/>
       <c r="BL22" s="6"/>
       <c r="BM22" s="7"/>
-      <c r="BN22" s="15"/>
+      <c r="BN22" s="19"/>
       <c r="BO22" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BP22" s="6"/>
       <c r="BQ22" s="6"/>
@@ -10352,9 +10574,9 @@
       <c r="BS22" s="6"/>
       <c r="BT22" s="6"/>
       <c r="BU22" s="7"/>
-      <c r="BV22" s="15"/>
+      <c r="BV22" s="19"/>
       <c r="BW22" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BX22" s="6"/>
       <c r="BY22" s="6"/>
@@ -10362,17 +10584,17 @@
       <c r="CA22" s="6"/>
       <c r="CB22" s="6"/>
       <c r="CC22" s="7"/>
-      <c r="CD22" s="15"/>
+      <c r="CD22" s="19"/>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E23" s="9">
         <v>3</v>
@@ -10386,20 +10608,20 @@
         <v>0</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="11">
+        <v>31</v>
+      </c>
+      <c r="I23" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N23" s="9">
         <v>3</v>
@@ -10413,15 +10635,15 @@
         <v>0</v>
       </c>
       <c r="Q23" s="9"/>
-      <c r="R23" s="11">
+      <c r="R23" s="12">
         <f>_xlfn.XLOOKUP(Electives[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AC23" s="9">
         <v>1</v>
@@ -10435,155 +10657,155 @@
         <v>1</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG23" s="11">
+        <v>40</v>
+      </c>
+      <c r="AG23" s="12">
         <f>_xlfn.XLOOKUP(AU_19[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3</v>
       </c>
-      <c r="AH23" s="15"/>
+      <c r="AH23" s="19"/>
       <c r="AI23" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AK23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL23" s="9" t="s">
+      <c r="AR23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AM23" s="9" t="s">
+      <c r="AT23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AN23" s="9" t="s">
+      <c r="AU23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AO23" s="9" t="s">
+      <c r="AV23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR23" s="9" t="s">
+      <c r="AW23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AS23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT23" s="9" t="s">
+      <c r="AZ23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AU23" s="9" t="s">
+      <c r="BB23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" s="9" t="s">
+      <c r="BC23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AW23" s="9" t="s">
+      <c r="BD23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ23" s="9" t="s">
+      <c r="BE23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BA23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB23" s="9" t="s">
+      <c r="BH23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BC23" s="9" t="s">
+      <c r="BJ23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BD23" s="9" t="s">
+      <c r="BK23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BE23" s="9" t="s">
+      <c r="BL23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BF23" s="15"/>
-      <c r="BG23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH23" s="9" t="s">
+      <c r="BM23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN23" s="19"/>
+      <c r="BO23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BI23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ23" s="9" t="s">
+      <c r="BP23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BK23" s="9" t="s">
+      <c r="BR23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BL23" s="9" t="s">
+      <c r="BS23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BM23" s="9" t="s">
+      <c r="BT23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BN23" s="15"/>
-      <c r="BO23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP23" s="9" t="s">
+      <c r="BU23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV23" s="19"/>
+      <c r="BW23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BQ23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR23" s="9" t="s">
+      <c r="BX23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BS23" s="9" t="s">
+      <c r="BZ23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BT23" s="9" t="s">
+      <c r="CA23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BU23" s="9" t="s">
+      <c r="CB23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BV23" s="15"/>
-      <c r="BW23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BX23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="BY23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BZ23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="CA23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="CB23" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="CC23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="CD23" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="CD23" s="19"/>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E24" s="9">
         <v>3</v>
@@ -10597,9 +10819,9 @@
         <v>0</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="11">
+        <v>31</v>
+      </c>
+      <c r="I24" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -10622,15 +10844,15 @@
         <f>Electives[[#Totals],[GPA]]*Electives[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="13">
         <f t="array" ref="R24">IFERROR(SUM(Electives[GPA]*Electives[GH])/Electives[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC24" s="9">
         <v>5</v>
@@ -10644,18 +10866,18 @@
         <v>5</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG24" s="11">
+        <v>34</v>
+      </c>
+      <c r="AG24" s="12">
         <f>_xlfn.XLOOKUP(AU_19[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
-      <c r="AH24" s="11"/>
+      <c r="AH24" s="12"/>
       <c r="AI24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AK24" s="9">
         <v>3</v>
@@ -10669,13 +10891,13 @@
         <v>3</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO24" s="11">
+        <v>24</v>
+      </c>
+      <c r="AO24" s="12">
         <f>_xlfn.XLOOKUP(SU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
-      <c r="AP24" s="11"/>
+      <c r="AP24" s="12"/>
       <c r="AQ24" s="1"/>
       <c r="AS24" s="9"/>
       <c r="AT24" s="9">
@@ -10687,11 +10909,11 @@
         <v>0</v>
       </c>
       <c r="AV24" s="9"/>
-      <c r="AW24" s="11">
+      <c r="AW24" s="12">
         <f>_xlfn.XLOOKUP(SU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AX24" s="11"/>
+      <c r="AX24" s="12"/>
       <c r="AY24" s="1"/>
       <c r="BA24" s="9"/>
       <c r="BB24" s="9">
@@ -10703,11 +10925,11 @@
         <v>0</v>
       </c>
       <c r="BD24" s="9"/>
-      <c r="BE24" s="11">
+      <c r="BE24" s="12">
         <f>_xlfn.XLOOKUP(SU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BF24" s="11"/>
+      <c r="BF24" s="12"/>
       <c r="BG24" s="1"/>
       <c r="BI24" s="9"/>
       <c r="BJ24" s="9">
@@ -10719,16 +10941,16 @@
         <v>0</v>
       </c>
       <c r="BL24" s="9"/>
-      <c r="BM24" s="11">
+      <c r="BM24" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BN24" s="11"/>
+      <c r="BN24" s="12"/>
       <c r="BO24" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BP24" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BQ24" s="9">
         <v>1</v>
@@ -10742,11 +10964,11 @@
         <v>0</v>
       </c>
       <c r="BT24" s="9"/>
-      <c r="BU24" s="11">
+      <c r="BU24" s="12">
         <f>_xlfn.XLOOKUP(SU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BV24" s="11"/>
+      <c r="BV24" s="12"/>
       <c r="BW24" s="1"/>
       <c r="BY24" s="9"/>
       <c r="BZ24" s="9">
@@ -10758,21 +10980,21 @@
         <v>0</v>
       </c>
       <c r="CB24" s="9"/>
-      <c r="CC24" s="11">
+      <c r="CC24" s="12">
         <f>_xlfn.XLOOKUP(SU_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="CD24" s="11"/>
+      <c r="CD24" s="12"/>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E25" s="9">
         <v>3</v>
@@ -10786,9 +11008,9 @@
         <v>0</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="11">
+        <v>31</v>
+      </c>
+      <c r="I25" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -10797,12 +11019,12 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="11"/>
+      <c r="R25" s="12"/>
       <c r="AA25" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AC25" s="9">
         <v>5</v>
@@ -10816,13 +11038,13 @@
         <v>0</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG25" s="11">
+        <v>79</v>
+      </c>
+      <c r="AG25" s="12">
         <f>_xlfn.XLOOKUP(AU_19[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="11"/>
+      <c r="AH25" s="12"/>
       <c r="AI25" s="1"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9">
@@ -10834,11 +11056,11 @@
         <v>0</v>
       </c>
       <c r="AN25" s="9"/>
-      <c r="AO25" s="11">
+      <c r="AO25" s="12">
         <f>_xlfn.XLOOKUP(SU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AP25" s="11"/>
+      <c r="AP25" s="12"/>
       <c r="AQ25" s="1"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9">
@@ -10850,11 +11072,11 @@
         <v>0</v>
       </c>
       <c r="AV25" s="9"/>
-      <c r="AW25" s="11">
+      <c r="AW25" s="12">
         <f>_xlfn.XLOOKUP(SU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AX25" s="11"/>
+      <c r="AX25" s="12"/>
       <c r="AY25" s="1"/>
       <c r="BA25" s="9"/>
       <c r="BB25" s="9">
@@ -10866,11 +11088,11 @@
         <v>0</v>
       </c>
       <c r="BD25" s="9"/>
-      <c r="BE25" s="11">
+      <c r="BE25" s="12">
         <f>_xlfn.XLOOKUP(SU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BF25" s="11"/>
+      <c r="BF25" s="12"/>
       <c r="BG25" s="1"/>
       <c r="BI25" s="9"/>
       <c r="BJ25" s="9">
@@ -10882,11 +11104,11 @@
         <v>0</v>
       </c>
       <c r="BL25" s="9"/>
-      <c r="BM25" s="11">
+      <c r="BM25" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BN25" s="11"/>
+      <c r="BN25" s="12"/>
       <c r="BO25" s="1"/>
       <c r="BQ25" s="9"/>
       <c r="BR25" s="9">
@@ -10898,11 +11120,11 @@
         <v>0</v>
       </c>
       <c r="BT25" s="9"/>
-      <c r="BU25" s="11">
+      <c r="BU25" s="12">
         <f>_xlfn.XLOOKUP(SU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BV25" s="11"/>
+      <c r="BV25" s="12"/>
       <c r="BW25" s="1"/>
       <c r="BY25" s="9"/>
       <c r="BZ25" s="9">
@@ -10914,21 +11136,21 @@
         <v>0</v>
       </c>
       <c r="CB25" s="9"/>
-      <c r="CC25" s="11">
+      <c r="CC25" s="12">
         <f>_xlfn.XLOOKUP(SU_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="CD25" s="11"/>
+      <c r="CD25" s="12"/>
     </row>
     <row r="26">
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E26" s="9">
         <v>3</v>
@@ -10942,14 +11164,14 @@
         <v>0</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="11">
+        <v>31</v>
+      </c>
+      <c r="I26" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -10959,10 +11181,10 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
       <c r="AA26" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AC26" s="9">
         <v>4</v>
@@ -10976,13 +11198,13 @@
         <v>0</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG26" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG26" s="12">
         <f>_xlfn.XLOOKUP(AU_19[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="11"/>
+      <c r="AH26" s="12"/>
       <c r="AI26" s="1"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9">
@@ -10994,11 +11216,11 @@
         <v>0</v>
       </c>
       <c r="AN26" s="9"/>
-      <c r="AO26" s="11">
+      <c r="AO26" s="12">
         <f>_xlfn.XLOOKUP(SU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AP26" s="11"/>
+      <c r="AP26" s="12"/>
       <c r="AQ26" s="1"/>
       <c r="AS26" s="9"/>
       <c r="AT26" s="9">
@@ -11010,11 +11232,11 @@
         <v>0</v>
       </c>
       <c r="AV26" s="9"/>
-      <c r="AW26" s="11">
+      <c r="AW26" s="12">
         <f>_xlfn.XLOOKUP(SU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AX26" s="11"/>
+      <c r="AX26" s="12"/>
       <c r="AY26" s="1"/>
       <c r="BA26" s="9"/>
       <c r="BB26" s="9">
@@ -11026,11 +11248,11 @@
         <v>0</v>
       </c>
       <c r="BD26" s="9"/>
-      <c r="BE26" s="11">
+      <c r="BE26" s="12">
         <f>_xlfn.XLOOKUP(SU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BF26" s="11"/>
+      <c r="BF26" s="12"/>
       <c r="BG26" s="1"/>
       <c r="BI26" s="9"/>
       <c r="BJ26" s="9">
@@ -11042,11 +11264,11 @@
         <v>0</v>
       </c>
       <c r="BL26" s="9"/>
-      <c r="BM26" s="11">
+      <c r="BM26" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BN26" s="11"/>
+      <c r="BN26" s="12"/>
       <c r="BO26" s="1"/>
       <c r="BQ26" s="9"/>
       <c r="BR26" s="9">
@@ -11058,11 +11280,11 @@
         <v>0</v>
       </c>
       <c r="BT26" s="9"/>
-      <c r="BU26" s="11">
+      <c r="BU26" s="12">
         <f>_xlfn.XLOOKUP(SU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BV26" s="11"/>
+      <c r="BV26" s="12"/>
       <c r="BW26" s="1"/>
       <c r="BY26" s="9"/>
       <c r="BZ26" s="9">
@@ -11074,21 +11296,21 @@
         <v>0</v>
       </c>
       <c r="CB26" s="9"/>
-      <c r="CC26" s="11">
+      <c r="CC26" s="12">
         <f>_xlfn.XLOOKUP(SU_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="CD26" s="11"/>
+      <c r="CD26" s="12"/>
     </row>
     <row r="27" ht="17.100000000000001">
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E27" s="9">
         <v>3</v>
@@ -11102,38 +11324,38 @@
         <v>0</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="11">
+        <v>31</v>
+      </c>
+      <c r="I27" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="4">
@@ -11152,11 +11374,11 @@
         <f>AU_19[[#Totals],[GPA]]*AU_19[[#Totals],[GH]]</f>
         <v>38</v>
       </c>
-      <c r="AG27" s="12">
+      <c r="AG27" s="13">
         <f t="array" ref="AG27">IFERROR(SUM(AU_19[GPA]*AU_19[GH])/AU_19[[#Totals],[GH]],0)</f>
         <v>3.4545454545454546</v>
       </c>
-      <c r="AH27" s="11"/>
+      <c r="AH27" s="12"/>
       <c r="AI27" s="1"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9">
@@ -11168,11 +11390,11 @@
         <v>0</v>
       </c>
       <c r="AN27" s="9"/>
-      <c r="AO27" s="11">
+      <c r="AO27" s="12">
         <f>_xlfn.XLOOKUP(SU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AP27" s="11"/>
+      <c r="AP27" s="12"/>
       <c r="AQ27" s="1"/>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9">
@@ -11184,11 +11406,11 @@
         <v>0</v>
       </c>
       <c r="AV27" s="9"/>
-      <c r="AW27" s="11">
+      <c r="AW27" s="12">
         <f>_xlfn.XLOOKUP(SU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AX27" s="11"/>
+      <c r="AX27" s="12"/>
       <c r="AY27" s="1"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9">
@@ -11200,11 +11422,11 @@
         <v>0</v>
       </c>
       <c r="BD27" s="9"/>
-      <c r="BE27" s="11">
+      <c r="BE27" s="12">
         <f>_xlfn.XLOOKUP(SU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BF27" s="11"/>
+      <c r="BF27" s="12"/>
       <c r="BG27" s="1"/>
       <c r="BI27" s="9"/>
       <c r="BJ27" s="9">
@@ -11216,11 +11438,11 @@
         <v>0</v>
       </c>
       <c r="BL27" s="9"/>
-      <c r="BM27" s="11">
+      <c r="BM27" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BN27" s="11"/>
+      <c r="BN27" s="12"/>
       <c r="BO27" s="1"/>
       <c r="BQ27" s="9"/>
       <c r="BR27" s="9">
@@ -11232,11 +11454,11 @@
         <v>0</v>
       </c>
       <c r="BT27" s="9"/>
-      <c r="BU27" s="11">
+      <c r="BU27" s="12">
         <f>_xlfn.XLOOKUP(SU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BV27" s="11"/>
+      <c r="BV27" s="12"/>
       <c r="BW27" s="1"/>
       <c r="BY27" s="9"/>
       <c r="BZ27" s="9">
@@ -11248,21 +11470,21 @@
         <v>0</v>
       </c>
       <c r="CB27" s="9"/>
-      <c r="CC27" s="11">
+      <c r="CC27" s="12">
         <f>_xlfn.XLOOKUP(SU_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="CD27" s="11"/>
+      <c r="CD27" s="12"/>
     </row>
     <row r="28" ht="17.100000000000001">
       <c r="B28" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E28" s="9">
         <v>3</v>
@@ -11276,20 +11498,20 @@
         <v>0</v>
       </c>
       <c r="H28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="12">
+        <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="11">
-        <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M28" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N28" s="9">
         <v>5</v>
@@ -11303,37 +11525,37 @@
         <v>0</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="11">
+        <v>31</v>
+      </c>
+      <c r="R28" s="12">
         <f>_xlfn.XLOOKUP(GenEng[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="19">
+      <c r="AA28" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="23">
         <f>AU_19[[#Totals],[AH]]+AC18</f>
         <v>62</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="23">
         <f>AU_19[[#Totals],[EH]]+AD18</f>
         <v>57</v>
       </c>
-      <c r="AE28" s="19">
+      <c r="AE28" s="23">
         <f>AU_19[[#Totals],[GH]]+AE18</f>
         <v>11</v>
       </c>
-      <c r="AF28" s="19">
+      <c r="AF28" s="23">
         <f>AU_19[[#Totals],[Grade]]+AF18</f>
         <v>38</v>
       </c>
-      <c r="AG28" s="20">
+      <c r="AG28" s="24">
         <f>AF28/AE28</f>
         <v>3.4545454545454546</v>
       </c>
-      <c r="AH28" s="11"/>
+      <c r="AH28" s="12"/>
       <c r="AI28" s="1"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9">
@@ -11345,11 +11567,11 @@
         <v>0</v>
       </c>
       <c r="AN28" s="9"/>
-      <c r="AO28" s="11">
+      <c r="AO28" s="12">
         <f>_xlfn.XLOOKUP(SU_21[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AP28" s="11"/>
+      <c r="AP28" s="12"/>
       <c r="AQ28" s="1"/>
       <c r="AS28" s="9"/>
       <c r="AT28" s="9">
@@ -11361,11 +11583,11 @@
         <v>0</v>
       </c>
       <c r="AV28" s="9"/>
-      <c r="AW28" s="11">
+      <c r="AW28" s="12">
         <f>_xlfn.XLOOKUP(SU_22[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AX28" s="11"/>
+      <c r="AX28" s="12"/>
       <c r="AY28" s="1"/>
       <c r="BA28" s="9"/>
       <c r="BB28" s="9">
@@ -11377,11 +11599,11 @@
         <v>0</v>
       </c>
       <c r="BD28" s="9"/>
-      <c r="BE28" s="11">
+      <c r="BE28" s="12">
         <f>_xlfn.XLOOKUP(SU_23[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BF28" s="11"/>
+      <c r="BF28" s="12"/>
       <c r="BG28" s="1"/>
       <c r="BI28" s="9"/>
       <c r="BJ28" s="9">
@@ -11393,11 +11615,11 @@
         <v>0</v>
       </c>
       <c r="BL28" s="9"/>
-      <c r="BM28" s="11">
+      <c r="BM28" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BN28" s="11"/>
+      <c r="BN28" s="12"/>
       <c r="BO28" s="1"/>
       <c r="BQ28" s="9"/>
       <c r="BR28" s="9">
@@ -11409,11 +11631,11 @@
         <v>0</v>
       </c>
       <c r="BT28" s="9"/>
-      <c r="BU28" s="11">
+      <c r="BU28" s="12">
         <f>_xlfn.XLOOKUP(SU_25[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="BV28" s="11"/>
+      <c r="BV28" s="12"/>
       <c r="BW28" s="1"/>
       <c r="BY28" s="9"/>
       <c r="BZ28" s="9">
@@ -11425,21 +11647,21 @@
         <v>0</v>
       </c>
       <c r="CB28" s="9"/>
-      <c r="CC28" s="11">
+      <c r="CC28" s="12">
         <f>_xlfn.XLOOKUP(SU_26[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="CD28" s="11"/>
+      <c r="CD28" s="12"/>
     </row>
     <row r="29" ht="17.100000000000001">
       <c r="B29" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E29" s="9">
         <v>3</v>
@@ -11453,20 +11675,20 @@
         <v>3</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="11">
+        <v>24</v>
+      </c>
+      <c r="I29" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N29" s="9">
         <v>5</v>
@@ -11480,15 +11702,15 @@
         <v>0</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" s="11">
+        <v>31</v>
+      </c>
+      <c r="R29" s="12">
         <f>_xlfn.XLOOKUP(GenEng[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="11"/>
+      <c r="AH29" s="12"/>
       <c r="AI29" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ29" s="9"/>
       <c r="AK29" s="4">
@@ -11507,13 +11729,13 @@
         <f>SU_21[[#Totals],[GPA]]*SU_21[[#Totals],[GH]]</f>
         <v>12</v>
       </c>
-      <c r="AO29" s="12">
+      <c r="AO29" s="13">
         <f t="array" ref="AO29">IFERROR(SUM(SU_21[GPA]*SU_21[GH])/SU_21[[#Totals],[GH]],0)</f>
         <v>4</v>
       </c>
-      <c r="AP29" s="11"/>
+      <c r="AP29" s="12"/>
       <c r="AQ29" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AR29" s="9"/>
       <c r="AS29" s="4">
@@ -11532,13 +11754,13 @@
         <f>SU_22[[#Totals],[GPA]]*SU_22[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="12">
+      <c r="AW29" s="13">
         <f t="array" ref="AW29">IFERROR(SUM(SU_22[GPA]*SU_22[GH])/SU_22[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
-      <c r="AX29" s="11"/>
+      <c r="AX29" s="12"/>
       <c r="AY29" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AZ29" s="9"/>
       <c r="BA29" s="4">
@@ -11557,13 +11779,13 @@
         <f>SU_23[[#Totals],[GPA]]*SU_23[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="BE29" s="12">
+      <c r="BE29" s="13">
         <f t="array" ref="BE29">IFERROR(SUM(SU_23[GPA]*SU_23[GH])/SU_23[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
-      <c r="BF29" s="11"/>
+      <c r="BF29" s="12"/>
       <c r="BG29" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BH29" s="9"/>
       <c r="BI29" s="4">
@@ -11582,13 +11804,13 @@
         <f>SU_24[[#Totals],[GPA]]*SU_24[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="BM29" s="12">
+      <c r="BM29" s="13">
         <f t="array" ref="BM29">IFERROR(SUM(SU_24[GPA]*SU_24[GH])/SU_24[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
-      <c r="BN29" s="11"/>
+      <c r="BN29" s="12"/>
       <c r="BO29" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BP29" s="9"/>
       <c r="BQ29" s="4">
@@ -11607,13 +11829,13 @@
         <f>SU_25[[#Totals],[GPA]]*SU_25[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="BU29" s="12">
+      <c r="BU29" s="13">
         <f t="array" ref="BU29">IFERROR(SUM(SU_25[GPA]*SU_25[GH])/SU_25[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
-      <c r="BV29" s="11"/>
+      <c r="BV29" s="12"/>
       <c r="BW29" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BX29" s="9"/>
       <c r="BY29" s="4">
@@ -11632,21 +11854,21 @@
         <f>SU_26[[#Totals],[GPA]]*SU_26[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="CC29" s="12">
+      <c r="CC29" s="13">
         <f t="array" ref="CC29">IFERROR(SUM(SU_26[GPA]*SU_26[GH])/SU_26[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
-      <c r="CD29" s="11"/>
+      <c r="CD29" s="12"/>
     </row>
     <row r="30" ht="17.100000000000001">
       <c r="B30" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E30" s="9">
         <v>3</v>
@@ -11660,20 +11882,20 @@
         <v>0</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="11">
+        <v>109</v>
+      </c>
+      <c r="I30" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N30" s="9">
         <v>5</v>
@@ -11687,14 +11909,14 @@
         <v>0</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="11">
+        <v>31</v>
+      </c>
+      <c r="R30" s="12">
         <f>_xlfn.XLOOKUP(GenEng[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
@@ -11702,167 +11924,167 @@
       <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="7"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="19">
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="23">
         <f>SU_21[[#Totals],[AH]]+AK20</f>
         <v>112</v>
       </c>
-      <c r="AL30" s="19">
+      <c r="AL30" s="23">
         <f>SU_21[[#Totals],[EH]]+AL20</f>
         <v>102</v>
       </c>
-      <c r="AM30" s="19">
+      <c r="AM30" s="23">
         <f>SU_21[[#Totals],[GH]]+AM20</f>
         <v>44</v>
       </c>
-      <c r="AN30" s="19">
+      <c r="AN30" s="23">
         <f>SU_21[[#Totals],[Grade]]+AN20</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="AO30" s="20">
+      <c r="AO30" s="24">
         <f>AN30/AM30</f>
         <v>3.540909090909091</v>
       </c>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="23">
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="27">
         <f>SU_22[[#Totals],[AH]]+AS20</f>
         <v>132</v>
       </c>
-      <c r="AT30" s="23">
+      <c r="AT30" s="27">
         <f>SU_22[[#Totals],[EH]]+AT20</f>
         <v>113</v>
       </c>
-      <c r="AU30" s="23">
+      <c r="AU30" s="27">
         <f>SU_22[[#Totals],[GH]]+AU20</f>
         <v>58</v>
       </c>
-      <c r="AV30" s="23">
+      <c r="AV30" s="27">
         <f>SU_22[[#Totals],[Grade]]+AV20</f>
         <v>178.40000000000001</v>
       </c>
-      <c r="AW30" s="24">
+      <c r="AW30" s="28">
         <f>AV30/AU30</f>
         <v>3.0758620689655172</v>
       </c>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ30" s="22"/>
-      <c r="BA30" s="23">
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="27">
         <f>SU_23[[#Totals],[AH]]+BA20</f>
         <v>149</v>
       </c>
-      <c r="BB30" s="23">
+      <c r="BB30" s="27">
         <f>SU_23[[#Totals],[EH]]+BB20</f>
         <v>130</v>
       </c>
-      <c r="BC30" s="23">
+      <c r="BC30" s="27">
         <f>SU_23[[#Totals],[GH]]+BC20</f>
         <v>75</v>
       </c>
-      <c r="BD30" s="23">
+      <c r="BD30" s="27">
         <f>SU_23[[#Totals],[Grade]]+BD20</f>
         <v>235.59999999999999</v>
       </c>
-      <c r="BE30" s="24">
+      <c r="BE30" s="28">
         <f>BD30/BC30</f>
         <v>3.1413333333333333</v>
       </c>
-      <c r="BF30" s="11"/>
-      <c r="BG30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BH30" s="22"/>
-      <c r="BI30" s="23">
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH30" s="26"/>
+      <c r="BI30" s="27">
         <f>SU_24[[#Totals],[AH]]+BI20</f>
         <v>178</v>
       </c>
-      <c r="BJ30" s="23">
+      <c r="BJ30" s="27">
         <f>SU_24[[#Totals],[EH]]+BJ20</f>
         <v>156</v>
       </c>
-      <c r="BK30" s="23">
+      <c r="BK30" s="27">
         <f>SU_24[[#Totals],[GH]]+BK20</f>
         <v>101</v>
       </c>
-      <c r="BL30" s="23">
+      <c r="BL30" s="27">
         <f>SU_24[[#Totals],[Grade]]+BL20</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="BM30" s="24">
+      <c r="BM30" s="28">
         <f>BL30/BK30</f>
         <v>3.3148514851485151</v>
       </c>
-      <c r="BN30" s="11"/>
-      <c r="BO30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP30" s="22"/>
-      <c r="BQ30" s="23">
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP30" s="26"/>
+      <c r="BQ30" s="27">
         <f>SU_25[[#Totals],[AH]]+BQ20</f>
         <v>202</v>
       </c>
-      <c r="BR30" s="23">
+      <c r="BR30" s="27">
         <f>SU_25[[#Totals],[EH]]+BR20</f>
         <v>156</v>
       </c>
-      <c r="BS30" s="23">
+      <c r="BS30" s="27">
         <f>SU_25[[#Totals],[GH]]+BS20</f>
         <v>101</v>
       </c>
-      <c r="BT30" s="23">
+      <c r="BT30" s="27">
         <f>SU_25[[#Totals],[Grade]]+BT20</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="BU30" s="24">
+      <c r="BU30" s="28">
         <f>BT30/BS30</f>
         <v>3.3148514851485151</v>
       </c>
-      <c r="BV30" s="11"/>
-      <c r="BW30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="BX30" s="22"/>
-      <c r="BY30" s="23">
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX30" s="26"/>
+      <c r="BY30" s="27">
         <f>SU_26[[#Totals],[AH]]+BY20</f>
-        <v>224</v>
-      </c>
-      <c r="BZ30" s="23">
+        <v>218</v>
+      </c>
+      <c r="BZ30" s="27">
         <f>SU_26[[#Totals],[EH]]+BZ20</f>
-        <v>156</v>
-      </c>
-      <c r="CA30" s="23">
+        <v>172</v>
+      </c>
+      <c r="CA30" s="27">
         <f>SU_26[[#Totals],[GH]]+CA20</f>
-        <v>101</v>
-      </c>
-      <c r="CB30" s="23">
+        <v>117</v>
+      </c>
+      <c r="CB30" s="27">
         <f>SU_26[[#Totals],[Grade]]+CB20</f>
         <v>334.80000000000001</v>
       </c>
-      <c r="CC30" s="24">
+      <c r="CC30" s="28">
         <f>CB30/CA30</f>
-        <v>3.3148514851485151</v>
-      </c>
-      <c r="CD30" s="11"/>
+        <v>2.8615384615384616</v>
+      </c>
+      <c r="CD30" s="12"/>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E31" s="9">
         <v>3</v>
@@ -11876,20 +12098,20 @@
         <v>3</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="11">
+        <v>63</v>
+      </c>
+      <c r="I31" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N31" s="9">
         <v>1</v>
@@ -11903,50 +12125,50 @@
         <v>1</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" s="11">
+        <v>40</v>
+      </c>
+      <c r="R31" s="12">
         <f>_xlfn.XLOOKUP(GenEng[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AX31" s="11"/>
-      <c r="BF31" s="11"/>
-      <c r="BN31" s="11"/>
-      <c r="BV31" s="11"/>
-      <c r="CD31" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="AH31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="CD31" s="12"/>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E32" s="9">
         <v>3</v>
@@ -11960,20 +12182,20 @@
         <v>3</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="11">
+        <v>24</v>
+      </c>
+      <c r="I32" s="12">
         <f>_xlfn.XLOOKUP(GenEd[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N32" s="9">
         <v>5</v>
@@ -11987,17 +12209,17 @@
         <v>5</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R32" s="11">
+        <v>63</v>
+      </c>
+      <c r="R32" s="12">
         <f>_xlfn.XLOOKUP(GenEng[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AC32" s="9">
         <v>3</v>
@@ -12011,19 +12233,19 @@
         <v>3</v>
       </c>
       <c r="AF32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG32" s="11">
+        <v>24</v>
+      </c>
+      <c r="AG32" s="12">
         <f>_xlfn.XLOOKUP(SP_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
-      <c r="AH32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AX32" s="11"/>
-      <c r="BF32" s="11"/>
-      <c r="BN32" s="11"/>
-      <c r="BV32" s="11"/>
-      <c r="CD32" s="11"/>
+      <c r="AH32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="CD32" s="12"/>
     </row>
     <row r="33">
       <c r="B33" s="4"/>
@@ -12045,18 +12267,18 @@
         <f>GenEd[[#Totals],[GPA]]*GenEd[[#Totals],[GH]]</f>
         <v>35.100000000000001</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="13">
         <f t="array" ref="I33">IFERROR(SUM(GenEd[GPA]*GenEd[GH])/GenEd[[#Totals],[GH]],0)</f>
         <v>3.9000000000000004</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N33" s="9">
         <v>3</v>
@@ -12070,17 +12292,17 @@
         <v>3</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="11">
+        <v>24</v>
+      </c>
+      <c r="R33" s="12">
         <f>_xlfn.XLOOKUP(GenEng[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AC33" s="9">
         <v>2</v>
@@ -12094,29 +12316,29 @@
         <v>2</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG33" s="11">
+        <v>34</v>
+      </c>
+      <c r="AG33" s="12">
         <f>_xlfn.XLOOKUP(SP_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
-      <c r="AH33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AX33" s="11"/>
-      <c r="BF33" s="11"/>
-      <c r="BN33" s="11"/>
-      <c r="BV33" s="11"/>
-      <c r="CD33" s="11"/>
+      <c r="AH33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="CD33" s="12"/>
     </row>
     <row r="34">
       <c r="K34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N34" s="9">
         <v>4</v>
@@ -12130,17 +12352,17 @@
         <v>0</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R34" s="11">
+        <v>109</v>
+      </c>
+      <c r="R34" s="12">
         <f>_xlfn.XLOOKUP(GenEng[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AC34" s="9">
         <v>5</v>
@@ -12154,23 +12376,23 @@
         <v>0</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG34" s="11">
+        <v>109</v>
+      </c>
+      <c r="AG34" s="12">
         <f>_xlfn.XLOOKUP(SP_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AX34" s="12"/>
-      <c r="BF34" s="12"/>
-      <c r="BN34" s="12"/>
-      <c r="BV34" s="12"/>
-      <c r="CD34" s="12"/>
+      <c r="AH34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AX34" s="13"/>
+      <c r="BF34" s="13"/>
+      <c r="BN34" s="13"/>
+      <c r="BV34" s="13"/>
+      <c r="CD34" s="13"/>
     </row>
     <row r="35">
       <c r="B35" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -12198,15 +12420,15 @@
         <f>GenEng[[#Totals],[GPA]]*GenEng[[#Totals],[GH]]</f>
         <v>33.5</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="13">
         <f t="array" ref="R35">IFERROR(SUM(GenEng[GPA]*GenEng[GH])/GenEng[[#Totals],[GH]],0)</f>
         <v>3.7222222222222223</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AC35" s="9">
         <v>3</v>
@@ -12220,43 +12442,43 @@
         <v>0</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG35" s="11">
+        <v>109</v>
+      </c>
+      <c r="AG35" s="12">
         <f>_xlfn.XLOOKUP(SP_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC36" s="9">
         <v>2</v>
@@ -12270,22 +12492,22 @@
         <v>2</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG36" s="11">
+        <v>24</v>
+      </c>
+      <c r="AG36" s="12">
         <f>_xlfn.XLOOKUP(SP_20[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
     </row>
     <row r="37" ht="17.100000000000001">
       <c r="B37" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E37" s="9">
         <v>3</v>
@@ -12299,14 +12521,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="11">
+        <v>31</v>
+      </c>
+      <c r="I37" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -12316,7 +12538,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
       <c r="AA37" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="4">
@@ -12335,20 +12557,20 @@
         <f>SP_20[[#Totals],[GPA]]*SP_20[[#Totals],[GH]]</f>
         <v>26.600000000000001</v>
       </c>
-      <c r="AG37" s="12">
+      <c r="AG37" s="13">
         <f t="array" ref="AG37">IFERROR(SUM(SP_20[GPA]*SP_20[GH])/SP_20[[#Totals],[GH]],0)</f>
         <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="38" ht="17.100000000000001">
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E38" s="9">
         <v>3</v>
@@ -12362,70 +12584,70 @@
         <v>0</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="11">
+        <v>31</v>
+      </c>
+      <c r="I38" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA38" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="19">
+        <v>18</v>
+      </c>
+      <c r="AA38" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="23">
         <f>SP_20[[#Totals],[AH]]+AC28</f>
         <v>77</v>
       </c>
-      <c r="AD38" s="19">
+      <c r="AD38" s="23">
         <f>SP_20[[#Totals],[EH]]+AD28</f>
         <v>72</v>
       </c>
-      <c r="AE38" s="19">
+      <c r="AE38" s="23">
         <f>SP_20[[#Totals],[GH]]+AE28</f>
         <v>18</v>
       </c>
-      <c r="AF38" s="19">
+      <c r="AF38" s="23">
         <f>SP_20[[#Totals],[Grade]]+AF28</f>
         <v>64.599999999999994</v>
       </c>
-      <c r="AG38" s="20">
+      <c r="AG38" s="24">
         <f>AF38/AE38</f>
         <v>3.5888888888888886</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E39" s="9">
         <v>3</v>
@@ -12439,49 +12661,49 @@
         <v>0</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="11">
+        <v>31</v>
+      </c>
+      <c r="I39" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39" s="14">
-        <v>3</v>
-      </c>
-      <c r="O39" s="14">
+        <v>171</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="18">
+        <v>3</v>
+      </c>
+      <c r="O39" s="18">
         <f>IF(_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),NonMajor[[#This Row],[AH]],0)</f>
         <v>3</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="18">
         <f>IF(_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),NonMajor[[#This Row],[AH]],0)</f>
         <v>3</v>
       </c>
-      <c r="Q39" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R39" s="15">
+      <c r="Q39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="R39" s="19">
         <f>_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E40" s="9">
         <v>4</v>
@@ -12495,20 +12717,20 @@
         <v>0</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="11">
+        <v>31</v>
+      </c>
+      <c r="I40" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N40" s="9">
         <v>3</v>
@@ -12522,22 +12744,22 @@
         <v>3</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R40" s="11">
+        <v>63</v>
+      </c>
+      <c r="R40" s="12">
         <f>_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E41" s="9">
         <v>5</v>
@@ -12551,20 +12773,20 @@
         <v>0</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" s="11">
+        <v>79</v>
+      </c>
+      <c r="I41" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N41" s="9">
         <v>3</v>
@@ -12578,22 +12800,22 @@
         <v>3</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="R41" s="11">
+        <v>155</v>
+      </c>
+      <c r="R41" s="12">
         <f>_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>1.7</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E42" s="9">
         <v>4</v>
@@ -12607,20 +12829,20 @@
         <v>0</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" s="11">
+        <v>109</v>
+      </c>
+      <c r="I42" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N42" s="9">
         <v>3</v>
@@ -12634,22 +12856,22 @@
         <v>3</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R42" s="11">
+        <v>63</v>
+      </c>
+      <c r="R42" s="12">
         <f>_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E43" s="9">
         <v>2</v>
@@ -12663,20 +12885,20 @@
         <v>2</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="11">
+        <v>24</v>
+      </c>
+      <c r="I43" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N43" s="9">
         <v>2</v>
@@ -12690,9 +12912,9 @@
         <v>2</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R43" s="11">
+        <v>34</v>
+      </c>
+      <c r="R43" s="12">
         <f>_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
@@ -12702,13 +12924,13 @@
     </row>
     <row r="44">
       <c r="B44" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E44" s="9">
         <v>2</v>
@@ -12722,20 +12944,20 @@
         <v>2</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="11">
+        <v>34</v>
+      </c>
+      <c r="I44" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N44" s="9">
         <v>5</v>
@@ -12749,9 +12971,9 @@
         <v>5</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R44" s="11">
+        <v>34</v>
+      </c>
+      <c r="R44" s="12">
         <f>_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
@@ -12811,13 +13033,13 @@
     </row>
     <row r="45">
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E45" s="9">
         <v>3</v>
@@ -12831,20 +13053,20 @@
         <v>3</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="11">
+        <v>34</v>
+      </c>
+      <c r="I45" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N45" s="9">
         <v>1</v>
@@ -12858,9 +13080,9 @@
         <v>0</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R45" s="11">
+        <v>109</v>
+      </c>
+      <c r="R45" s="12">
         <f>_xlfn.XLOOKUP(NonMajor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -12920,13 +13142,13 @@
     </row>
     <row r="46">
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E46" s="9">
         <v>5</v>
@@ -12940,9 +13162,9 @@
         <v>0</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I46" s="11">
+        <v>79</v>
+      </c>
+      <c r="I46" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -12965,7 +13187,7 @@
         <f>NonMajor[[#Totals],[GPA]]*NonMajor[[#Totals],[GH]]</f>
         <v>60.300000000000004</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R46" s="13">
         <f t="array" ref="R46">IFERROR(SUM(NonMajor[GPA]*NonMajor[GH])/NonMajor[[#Totals],[GH]],0)</f>
         <v>3.1736842105263161</v>
       </c>
@@ -13025,13 +13247,13 @@
     </row>
     <row r="47">
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E47" s="9">
         <v>4</v>
@@ -13045,9 +13267,9 @@
         <v>4</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="11">
+        <v>40</v>
+      </c>
+      <c r="I47" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3</v>
       </c>
@@ -13107,13 +13329,13 @@
     </row>
     <row r="48">
       <c r="B48" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48" s="9">
         <v>2</v>
@@ -13127,9 +13349,9 @@
         <v>2</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="11">
+        <v>34</v>
+      </c>
+      <c r="I48" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.2999999999999998</v>
       </c>
@@ -13137,7 +13359,7 @@
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
-      <c r="W48" s="14"/>
+      <c r="W48" s="18"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
@@ -13194,13 +13416,13 @@
     </row>
     <row r="49">
       <c r="B49" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" s="9">
         <v>3</v>
@@ -13214,9 +13436,9 @@
         <v>3</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" s="11">
+        <v>174</v>
+      </c>
+      <c r="I49" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>2.7000000000000002</v>
       </c>
@@ -13281,13 +13503,13 @@
     </row>
     <row r="50">
       <c r="B50" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E50" s="9">
         <v>5</v>
@@ -13301,9 +13523,9 @@
         <v>5</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I50" s="11">
+        <v>37</v>
+      </c>
+      <c r="I50" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>2</v>
       </c>
@@ -13367,13 +13589,13 @@
     </row>
     <row r="51">
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E51" s="9">
         <v>3</v>
@@ -13387,9 +13609,9 @@
         <v>3</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="11">
+        <v>60</v>
+      </c>
+      <c r="I51" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -13397,9 +13619,9 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
@@ -13456,13 +13678,13 @@
     </row>
     <row r="52">
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E52" s="9">
         <v>4</v>
@@ -13476,9 +13698,9 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I52" s="11">
+        <v>79</v>
+      </c>
+      <c r="I52" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -13486,9 +13708,9 @@
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
@@ -13545,13 +13767,13 @@
     </row>
     <row r="53">
       <c r="B53" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
@@ -13565,9 +13787,9 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I53" s="11">
+        <v>79</v>
+      </c>
+      <c r="I53" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -13575,9 +13797,9 @@
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
@@ -13634,13 +13856,13 @@
     </row>
     <row r="54">
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E54" s="9">
         <v>4</v>
@@ -13654,9 +13876,9 @@
         <v>4</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I54" s="11">
+        <v>144</v>
+      </c>
+      <c r="I54" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>1.3</v>
       </c>
@@ -13720,13 +13942,13 @@
     </row>
     <row r="55">
       <c r="B55" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E55" s="9">
         <v>2</v>
@@ -13740,9 +13962,9 @@
         <v>2</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="11">
+        <v>63</v>
+      </c>
+      <c r="I55" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>3.7000000000000002</v>
       </c>
@@ -13807,13 +14029,13 @@
     </row>
     <row r="56">
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E56" s="9">
         <v>5</v>
@@ -13827,15 +14049,15 @@
         <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="11">
+        <v>24</v>
+      </c>
+      <c r="I56" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="T56" s="9"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="11"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="12"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
@@ -13892,13 +14114,13 @@
     </row>
     <row r="57">
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57" s="9">
         <v>3</v>
@@ -13912,16 +14134,16 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I57" s="11">
+        <v>79</v>
+      </c>
+      <c r="I57" s="12">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
-      <c r="S57" s="25"/>
+      <c r="S57" s="33"/>
       <c r="T57" s="9"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="11"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="12"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
@@ -13978,35 +14200,35 @@
     </row>
     <row r="58">
       <c r="B58" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="14">
-        <v>3</v>
-      </c>
-      <c r="F58" s="14">
+        <v>167</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="18">
+        <v>3</v>
+      </c>
+      <c r="F58" s="18">
         <f>IF(_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),Uncounted[[#This Row],[AH]],0)</f>
         <v>3</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="18">
         <f>IF(_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),Uncounted[[#This Row],[AH]],0)</f>
         <v>3</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="15">
+      <c r="H58" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="19">
         <f>_xlfn.XLOOKUP(Uncounted[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>4</v>
       </c>
       <c r="T58" s="9"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="11"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="12"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
@@ -14081,7 +14303,7 @@
         <f>Uncounted[[#Totals],[GPA]]*Uncounted[[#Totals],[GH]]</f>
         <v>105.80000000000001</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="13">
         <f t="array" ref="I59">IFERROR(SUM(Uncounted[GPA]*Uncounted[GH])/Uncounted[[#Totals],[GH]],0)</f>
         <v>2.7842105263157899</v>
       </c>
@@ -14196,7 +14418,7 @@
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -14261,28 +14483,28 @@
     </row>
     <row r="62">
       <c r="B62" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
@@ -14340,13 +14562,13 @@
     </row>
     <row r="63">
       <c r="B63" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E63" s="9">
         <v>3</v>
@@ -14360,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="11">
+      <c r="I63" s="12">
         <f>_xlfn.XLOOKUP(GameMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -14420,13 +14642,13 @@
     </row>
     <row r="64">
       <c r="B64" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E64" s="9">
         <v>3</v>
@@ -14440,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="11">
+      <c r="I64" s="12">
         <f>_xlfn.XLOOKUP(GameMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -14500,13 +14722,13 @@
     </row>
     <row r="65">
       <c r="B65" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E65" s="9">
         <v>3</v>
@@ -14520,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="11">
+      <c r="I65" s="12">
         <f>_xlfn.XLOOKUP(GameMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -14580,13 +14802,13 @@
     </row>
     <row r="66">
       <c r="B66" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E66" s="9">
         <v>3</v>
@@ -14600,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="11">
+      <c r="I66" s="12">
         <f>_xlfn.XLOOKUP(GameMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -14660,13 +14882,13 @@
     </row>
     <row r="67">
       <c r="B67" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="9">
         <v>3</v>
@@ -14680,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="11">
+      <c r="I67" s="12">
         <f>_xlfn.XLOOKUP(GameMinor[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
         <v>0</v>
       </c>
@@ -14758,7 +14980,7 @@
         <f>GameMinor[[#Totals],[GPA]]*GameMinor[[#Totals],[GH]]</f>
         <v>0</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="13">
         <f t="array" ref="I68">IFERROR(SUM(GameMinor[GPA]*GameMinor[GH])/GameMinor[[#Totals],[GH]],0)</f>
         <v>0</v>
       </c>
@@ -15392,76 +15614,76 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="AB87" s="9"/>
-      <c r="AD87" s="16"/>
+      <c r="AD87" s="20"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
       <c r="AG87" s="9"/>
       <c r="AH87" s="1"/>
-      <c r="AI87" s="16"/>
+      <c r="AI87" s="20"/>
       <c r="AL87" s="9"/>
-      <c r="AN87" s="16"/>
+      <c r="AN87" s="20"/>
       <c r="AP87" s="1"/>
-      <c r="AQ87" s="16"/>
+      <c r="AQ87" s="20"/>
       <c r="AT87" s="9"/>
-      <c r="AV87" s="16"/>
+      <c r="AV87" s="20"/>
       <c r="AX87" s="1"/>
-      <c r="AY87" s="16"/>
+      <c r="AY87" s="20"/>
       <c r="BB87" s="9"/>
-      <c r="BD87" s="16"/>
+      <c r="BD87" s="20"/>
       <c r="BF87" s="1"/>
-      <c r="BG87" s="16"/>
+      <c r="BG87" s="20"/>
       <c r="BJ87" s="9"/>
-      <c r="BL87" s="16"/>
+      <c r="BL87" s="20"/>
       <c r="BN87" s="1"/>
-      <c r="BO87" s="16"/>
+      <c r="BO87" s="20"/>
       <c r="BR87" s="9"/>
-      <c r="BT87" s="16"/>
+      <c r="BT87" s="20"/>
       <c r="BV87" s="1"/>
-      <c r="BW87" s="16"/>
+      <c r="BW87" s="20"/>
       <c r="BZ87" s="9"/>
-      <c r="CB87" s="16"/>
+      <c r="CB87" s="20"/>
       <c r="CD87" s="1"/>
     </row>
     <row r="88">
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
-      <c r="AA88" s="25"/>
+      <c r="AA88" s="33"/>
       <c r="AB88" s="9"/>
-      <c r="AD88" s="16"/>
+      <c r="AD88" s="20"/>
       <c r="AE88" s="1"/>
-      <c r="AF88" s="25"/>
+      <c r="AF88" s="33"/>
       <c r="AG88" s="9"/>
       <c r="AH88" s="1"/>
-      <c r="AI88" s="16"/>
-      <c r="AK88" s="25"/>
+      <c r="AI88" s="20"/>
+      <c r="AK88" s="33"/>
       <c r="AL88" s="9"/>
-      <c r="AN88" s="16"/>
+      <c r="AN88" s="20"/>
       <c r="AP88" s="1"/>
-      <c r="AQ88" s="16"/>
-      <c r="AS88" s="25"/>
+      <c r="AQ88" s="20"/>
+      <c r="AS88" s="33"/>
       <c r="AT88" s="9"/>
-      <c r="AV88" s="16"/>
+      <c r="AV88" s="20"/>
       <c r="AX88" s="1"/>
-      <c r="AY88" s="16"/>
-      <c r="BA88" s="25"/>
+      <c r="AY88" s="20"/>
+      <c r="BA88" s="33"/>
       <c r="BB88" s="9"/>
-      <c r="BD88" s="16"/>
+      <c r="BD88" s="20"/>
       <c r="BF88" s="1"/>
-      <c r="BG88" s="16"/>
-      <c r="BI88" s="25"/>
+      <c r="BG88" s="20"/>
+      <c r="BI88" s="33"/>
       <c r="BJ88" s="9"/>
-      <c r="BL88" s="16"/>
+      <c r="BL88" s="20"/>
       <c r="BN88" s="1"/>
-      <c r="BO88" s="16"/>
-      <c r="BQ88" s="25"/>
+      <c r="BO88" s="20"/>
+      <c r="BQ88" s="33"/>
       <c r="BR88" s="9"/>
-      <c r="BT88" s="16"/>
+      <c r="BT88" s="20"/>
       <c r="BV88" s="1"/>
-      <c r="BW88" s="16"/>
-      <c r="BY88" s="25"/>
+      <c r="BW88" s="20"/>
+      <c r="BY88" s="33"/>
       <c r="BZ88" s="9"/>
-      <c r="CB88" s="16"/>
+      <c r="CB88" s="20"/>
       <c r="CD88" s="1"/>
     </row>
     <row r="89">
@@ -15469,34 +15691,34 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
       <c r="AB89" s="9"/>
-      <c r="AD89" s="16"/>
+      <c r="AD89" s="20"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
       <c r="AG89" s="9"/>
       <c r="AH89" s="1"/>
-      <c r="AI89" s="16"/>
+      <c r="AI89" s="20"/>
       <c r="AL89" s="9"/>
-      <c r="AN89" s="16"/>
+      <c r="AN89" s="20"/>
       <c r="AP89" s="1"/>
-      <c r="AQ89" s="16"/>
+      <c r="AQ89" s="20"/>
       <c r="AT89" s="9"/>
-      <c r="AV89" s="16"/>
+      <c r="AV89" s="20"/>
       <c r="AX89" s="1"/>
-      <c r="AY89" s="16"/>
+      <c r="AY89" s="20"/>
       <c r="BB89" s="9"/>
-      <c r="BD89" s="16"/>
+      <c r="BD89" s="20"/>
       <c r="BF89" s="1"/>
-      <c r="BG89" s="16"/>
+      <c r="BG89" s="20"/>
       <c r="BJ89" s="9"/>
-      <c r="BL89" s="16"/>
+      <c r="BL89" s="20"/>
       <c r="BN89" s="1"/>
-      <c r="BO89" s="16"/>
+      <c r="BO89" s="20"/>
       <c r="BR89" s="9"/>
-      <c r="BT89" s="16"/>
+      <c r="BT89" s="20"/>
       <c r="BV89" s="1"/>
-      <c r="BW89" s="16"/>
+      <c r="BW89" s="20"/>
       <c r="BZ89" s="9"/>
-      <c r="CB89" s="16"/>
+      <c r="CB89" s="20"/>
       <c r="CD89" s="1"/>
     </row>
     <row r="90">
@@ -15799,105 +16021,105 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
       <c r="AB98" s="9"/>
-      <c r="AD98" s="16"/>
+      <c r="AD98" s="20"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
       <c r="AG98" s="9"/>
       <c r="AH98" s="1"/>
-      <c r="AI98" s="16"/>
+      <c r="AI98" s="20"/>
       <c r="AL98" s="9"/>
-      <c r="AN98" s="16"/>
+      <c r="AN98" s="20"/>
       <c r="AP98" s="1"/>
-      <c r="AQ98" s="16"/>
+      <c r="AQ98" s="20"/>
       <c r="AT98" s="9"/>
-      <c r="AV98" s="16"/>
+      <c r="AV98" s="20"/>
       <c r="AX98" s="1"/>
-      <c r="AY98" s="16"/>
+      <c r="AY98" s="20"/>
       <c r="BB98" s="9"/>
-      <c r="BD98" s="16"/>
+      <c r="BD98" s="20"/>
       <c r="BF98" s="1"/>
-      <c r="BG98" s="16"/>
+      <c r="BG98" s="20"/>
       <c r="BJ98" s="9"/>
-      <c r="BL98" s="16"/>
+      <c r="BL98" s="20"/>
       <c r="BN98" s="1"/>
-      <c r="BO98" s="16"/>
+      <c r="BO98" s="20"/>
       <c r="BR98" s="9"/>
-      <c r="BT98" s="16"/>
+      <c r="BT98" s="20"/>
       <c r="BV98" s="1"/>
-      <c r="BW98" s="16"/>
+      <c r="BW98" s="20"/>
       <c r="BZ98" s="9"/>
-      <c r="CB98" s="16"/>
+      <c r="CB98" s="20"/>
       <c r="CD98" s="1"/>
     </row>
     <row r="99">
-      <c r="AA99" s="25"/>
+      <c r="AA99" s="33"/>
       <c r="AB99" s="9"/>
-      <c r="AD99" s="16"/>
+      <c r="AD99" s="20"/>
       <c r="AE99" s="1"/>
-      <c r="AF99" s="25"/>
+      <c r="AF99" s="33"/>
       <c r="AG99" s="9"/>
       <c r="AH99" s="1"/>
-      <c r="AI99" s="16"/>
-      <c r="AK99" s="25"/>
+      <c r="AI99" s="20"/>
+      <c r="AK99" s="33"/>
       <c r="AL99" s="9"/>
-      <c r="AN99" s="16"/>
+      <c r="AN99" s="20"/>
       <c r="AP99" s="1"/>
-      <c r="AQ99" s="16"/>
-      <c r="AS99" s="25"/>
+      <c r="AQ99" s="20"/>
+      <c r="AS99" s="33"/>
       <c r="AT99" s="9"/>
-      <c r="AV99" s="16"/>
+      <c r="AV99" s="20"/>
       <c r="AX99" s="1"/>
-      <c r="AY99" s="16"/>
-      <c r="BA99" s="25"/>
+      <c r="AY99" s="20"/>
+      <c r="BA99" s="33"/>
       <c r="BB99" s="9"/>
-      <c r="BD99" s="16"/>
+      <c r="BD99" s="20"/>
       <c r="BF99" s="1"/>
-      <c r="BG99" s="16"/>
-      <c r="BI99" s="25"/>
+      <c r="BG99" s="20"/>
+      <c r="BI99" s="33"/>
       <c r="BJ99" s="9"/>
-      <c r="BL99" s="16"/>
+      <c r="BL99" s="20"/>
       <c r="BN99" s="1"/>
-      <c r="BO99" s="16"/>
-      <c r="BQ99" s="25"/>
+      <c r="BO99" s="20"/>
+      <c r="BQ99" s="33"/>
       <c r="BR99" s="9"/>
-      <c r="BT99" s="16"/>
+      <c r="BT99" s="20"/>
       <c r="BV99" s="1"/>
-      <c r="BW99" s="16"/>
-      <c r="BY99" s="25"/>
+      <c r="BW99" s="20"/>
+      <c r="BY99" s="33"/>
       <c r="BZ99" s="9"/>
-      <c r="CB99" s="16"/>
+      <c r="CB99" s="20"/>
       <c r="CD99" s="1"/>
     </row>
     <row r="100">
       <c r="AB100" s="9"/>
-      <c r="AD100" s="16"/>
+      <c r="AD100" s="20"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
       <c r="AG100" s="9"/>
       <c r="AH100" s="1"/>
-      <c r="AI100" s="16"/>
+      <c r="AI100" s="20"/>
       <c r="AL100" s="9"/>
-      <c r="AN100" s="16"/>
+      <c r="AN100" s="20"/>
       <c r="AP100" s="1"/>
-      <c r="AQ100" s="16"/>
+      <c r="AQ100" s="20"/>
       <c r="AT100" s="9"/>
-      <c r="AV100" s="16"/>
+      <c r="AV100" s="20"/>
       <c r="AX100" s="1"/>
-      <c r="AY100" s="16"/>
+      <c r="AY100" s="20"/>
       <c r="BB100" s="9"/>
-      <c r="BD100" s="16"/>
+      <c r="BD100" s="20"/>
       <c r="BF100" s="1"/>
-      <c r="BG100" s="16"/>
+      <c r="BG100" s="20"/>
       <c r="BJ100" s="9"/>
-      <c r="BL100" s="16"/>
+      <c r="BL100" s="20"/>
       <c r="BN100" s="1"/>
-      <c r="BO100" s="16"/>
+      <c r="BO100" s="20"/>
       <c r="BR100" s="9"/>
-      <c r="BT100" s="16"/>
+      <c r="BT100" s="20"/>
       <c r="BV100" s="1"/>
-      <c r="BW100" s="16"/>
+      <c r="BW100" s="20"/>
       <c r="BZ100" s="9"/>
-      <c r="CB100" s="16"/>
+      <c r="CB100" s="20"/>
       <c r="CD100" s="1"/>
     </row>
     <row r="101">
@@ -16077,105 +16299,105 @@
     </row>
     <row r="106">
       <c r="AB106" s="9"/>
-      <c r="AD106" s="16"/>
+      <c r="AD106" s="20"/>
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
       <c r="AG106" s="9"/>
       <c r="AH106" s="1"/>
-      <c r="AI106" s="16"/>
+      <c r="AI106" s="20"/>
       <c r="AL106" s="9"/>
-      <c r="AN106" s="16"/>
+      <c r="AN106" s="20"/>
       <c r="AP106" s="1"/>
-      <c r="AQ106" s="16"/>
+      <c r="AQ106" s="20"/>
       <c r="AT106" s="9"/>
-      <c r="AV106" s="16"/>
+      <c r="AV106" s="20"/>
       <c r="AX106" s="1"/>
-      <c r="AY106" s="16"/>
+      <c r="AY106" s="20"/>
       <c r="BB106" s="9"/>
-      <c r="BD106" s="16"/>
+      <c r="BD106" s="20"/>
       <c r="BF106" s="1"/>
-      <c r="BG106" s="16"/>
+      <c r="BG106" s="20"/>
       <c r="BJ106" s="9"/>
-      <c r="BL106" s="16"/>
+      <c r="BL106" s="20"/>
       <c r="BN106" s="1"/>
-      <c r="BO106" s="16"/>
+      <c r="BO106" s="20"/>
       <c r="BR106" s="9"/>
-      <c r="BT106" s="16"/>
+      <c r="BT106" s="20"/>
       <c r="BV106" s="1"/>
-      <c r="BW106" s="16"/>
+      <c r="BW106" s="20"/>
       <c r="BZ106" s="9"/>
-      <c r="CB106" s="16"/>
+      <c r="CB106" s="20"/>
       <c r="CD106" s="1"/>
     </row>
     <row r="107">
-      <c r="AA107" s="25"/>
+      <c r="AA107" s="33"/>
       <c r="AB107" s="9"/>
-      <c r="AD107" s="16"/>
+      <c r="AD107" s="20"/>
       <c r="AE107" s="1"/>
-      <c r="AF107" s="25"/>
+      <c r="AF107" s="33"/>
       <c r="AG107" s="9"/>
       <c r="AH107" s="1"/>
-      <c r="AI107" s="16"/>
-      <c r="AK107" s="25"/>
+      <c r="AI107" s="20"/>
+      <c r="AK107" s="33"/>
       <c r="AL107" s="9"/>
-      <c r="AN107" s="16"/>
+      <c r="AN107" s="20"/>
       <c r="AP107" s="1"/>
-      <c r="AQ107" s="16"/>
-      <c r="AS107" s="25"/>
+      <c r="AQ107" s="20"/>
+      <c r="AS107" s="33"/>
       <c r="AT107" s="9"/>
-      <c r="AV107" s="16"/>
+      <c r="AV107" s="20"/>
       <c r="AX107" s="1"/>
-      <c r="AY107" s="16"/>
-      <c r="BA107" s="25"/>
+      <c r="AY107" s="20"/>
+      <c r="BA107" s="33"/>
       <c r="BB107" s="9"/>
-      <c r="BD107" s="16"/>
+      <c r="BD107" s="20"/>
       <c r="BF107" s="1"/>
-      <c r="BG107" s="16"/>
-      <c r="BI107" s="25"/>
+      <c r="BG107" s="20"/>
+      <c r="BI107" s="33"/>
       <c r="BJ107" s="9"/>
-      <c r="BL107" s="16"/>
+      <c r="BL107" s="20"/>
       <c r="BN107" s="1"/>
-      <c r="BO107" s="16"/>
-      <c r="BQ107" s="25"/>
+      <c r="BO107" s="20"/>
+      <c r="BQ107" s="33"/>
       <c r="BR107" s="9"/>
-      <c r="BT107" s="16"/>
+      <c r="BT107" s="20"/>
       <c r="BV107" s="1"/>
-      <c r="BW107" s="16"/>
-      <c r="BY107" s="25"/>
+      <c r="BW107" s="20"/>
+      <c r="BY107" s="33"/>
       <c r="BZ107" s="9"/>
-      <c r="CB107" s="16"/>
+      <c r="CB107" s="20"/>
       <c r="CD107" s="1"/>
     </row>
     <row r="108">
       <c r="AB108" s="9"/>
-      <c r="AD108" s="16"/>
+      <c r="AD108" s="20"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
       <c r="AG108" s="9"/>
       <c r="AH108" s="1"/>
-      <c r="AI108" s="16"/>
+      <c r="AI108" s="20"/>
       <c r="AL108" s="9"/>
-      <c r="AN108" s="16"/>
+      <c r="AN108" s="20"/>
       <c r="AP108" s="1"/>
-      <c r="AQ108" s="16"/>
+      <c r="AQ108" s="20"/>
       <c r="AT108" s="9"/>
-      <c r="AV108" s="16"/>
+      <c r="AV108" s="20"/>
       <c r="AX108" s="1"/>
-      <c r="AY108" s="16"/>
+      <c r="AY108" s="20"/>
       <c r="BB108" s="9"/>
-      <c r="BD108" s="16"/>
+      <c r="BD108" s="20"/>
       <c r="BF108" s="1"/>
-      <c r="BG108" s="16"/>
+      <c r="BG108" s="20"/>
       <c r="BJ108" s="9"/>
-      <c r="BL108" s="16"/>
+      <c r="BL108" s="20"/>
       <c r="BN108" s="1"/>
-      <c r="BO108" s="16"/>
+      <c r="BO108" s="20"/>
       <c r="BR108" s="9"/>
-      <c r="BT108" s="16"/>
+      <c r="BT108" s="20"/>
       <c r="BV108" s="1"/>
-      <c r="BW108" s="16"/>
+      <c r="BW108" s="20"/>
       <c r="BZ108" s="9"/>
-      <c r="CB108" s="16"/>
+      <c r="CB108" s="20"/>
       <c r="CD108" s="1"/>
     </row>
     <row r="109">
@@ -16456,67 +16678,67 @@
       <c r="AF117" s="1"/>
       <c r="AG117" s="9"/>
       <c r="AH117" s="1"/>
-      <c r="AI117" s="16"/>
+      <c r="AI117" s="20"/>
       <c r="AL117" s="9"/>
-      <c r="AN117" s="16"/>
+      <c r="AN117" s="20"/>
       <c r="AP117" s="1"/>
-      <c r="AQ117" s="16"/>
+      <c r="AQ117" s="20"/>
       <c r="AT117" s="9"/>
-      <c r="AV117" s="16"/>
+      <c r="AV117" s="20"/>
       <c r="AX117" s="1"/>
-      <c r="AY117" s="16"/>
+      <c r="AY117" s="20"/>
       <c r="BB117" s="9"/>
-      <c r="BD117" s="16"/>
+      <c r="BD117" s="20"/>
       <c r="BF117" s="1"/>
-      <c r="BG117" s="16"/>
+      <c r="BG117" s="20"/>
       <c r="BJ117" s="9"/>
-      <c r="BL117" s="16"/>
+      <c r="BL117" s="20"/>
       <c r="BN117" s="1"/>
-      <c r="BO117" s="16"/>
+      <c r="BO117" s="20"/>
       <c r="BR117" s="9"/>
-      <c r="BT117" s="16"/>
+      <c r="BT117" s="20"/>
       <c r="BV117" s="1"/>
-      <c r="BW117" s="16"/>
+      <c r="BW117" s="20"/>
       <c r="BZ117" s="9"/>
-      <c r="CB117" s="16"/>
+      <c r="CB117" s="20"/>
       <c r="CD117" s="1"/>
     </row>
     <row r="118">
       <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
       <c r="AE118" s="1"/>
-      <c r="AF118" s="25"/>
+      <c r="AF118" s="33"/>
       <c r="AG118" s="9"/>
       <c r="AH118" s="1"/>
-      <c r="AI118" s="16"/>
-      <c r="AK118" s="25"/>
+      <c r="AI118" s="20"/>
+      <c r="AK118" s="33"/>
       <c r="AL118" s="9"/>
-      <c r="AN118" s="16"/>
+      <c r="AN118" s="20"/>
       <c r="AP118" s="1"/>
-      <c r="AQ118" s="16"/>
-      <c r="AS118" s="25"/>
+      <c r="AQ118" s="20"/>
+      <c r="AS118" s="33"/>
       <c r="AT118" s="9"/>
-      <c r="AV118" s="16"/>
+      <c r="AV118" s="20"/>
       <c r="AX118" s="1"/>
-      <c r="AY118" s="16"/>
-      <c r="BA118" s="25"/>
+      <c r="AY118" s="20"/>
+      <c r="BA118" s="33"/>
       <c r="BB118" s="9"/>
-      <c r="BD118" s="16"/>
+      <c r="BD118" s="20"/>
       <c r="BF118" s="1"/>
-      <c r="BG118" s="16"/>
-      <c r="BI118" s="25"/>
+      <c r="BG118" s="20"/>
+      <c r="BI118" s="33"/>
       <c r="BJ118" s="9"/>
-      <c r="BL118" s="16"/>
+      <c r="BL118" s="20"/>
       <c r="BN118" s="1"/>
-      <c r="BO118" s="16"/>
-      <c r="BQ118" s="25"/>
+      <c r="BO118" s="20"/>
+      <c r="BQ118" s="33"/>
       <c r="BR118" s="9"/>
-      <c r="BT118" s="16"/>
+      <c r="BT118" s="20"/>
       <c r="BV118" s="1"/>
-      <c r="BW118" s="16"/>
-      <c r="BY118" s="25"/>
+      <c r="BW118" s="20"/>
+      <c r="BY118" s="33"/>
       <c r="BZ118" s="9"/>
-      <c r="CB118" s="16"/>
+      <c r="CB118" s="20"/>
       <c r="CD118" s="1"/>
     </row>
     <row r="119">
@@ -16526,29 +16748,29 @@
       <c r="AF119" s="1"/>
       <c r="AG119" s="9"/>
       <c r="AH119" s="1"/>
-      <c r="AI119" s="16"/>
+      <c r="AI119" s="20"/>
       <c r="AL119" s="9"/>
-      <c r="AN119" s="16"/>
+      <c r="AN119" s="20"/>
       <c r="AP119" s="1"/>
-      <c r="AQ119" s="16"/>
+      <c r="AQ119" s="20"/>
       <c r="AT119" s="9"/>
-      <c r="AV119" s="16"/>
+      <c r="AV119" s="20"/>
       <c r="AX119" s="1"/>
-      <c r="AY119" s="16"/>
+      <c r="AY119" s="20"/>
       <c r="BB119" s="9"/>
-      <c r="BD119" s="16"/>
+      <c r="BD119" s="20"/>
       <c r="BF119" s="1"/>
-      <c r="BG119" s="16"/>
+      <c r="BG119" s="20"/>
       <c r="BJ119" s="9"/>
-      <c r="BL119" s="16"/>
+      <c r="BL119" s="20"/>
       <c r="BN119" s="1"/>
-      <c r="BO119" s="16"/>
+      <c r="BO119" s="20"/>
       <c r="BR119" s="9"/>
-      <c r="BT119" s="16"/>
+      <c r="BT119" s="20"/>
       <c r="BV119" s="1"/>
-      <c r="BW119" s="16"/>
+      <c r="BW119" s="20"/>
       <c r="BZ119" s="9"/>
-      <c r="CB119" s="16"/>
+      <c r="CB119" s="20"/>
       <c r="CD119" s="1"/>
     </row>
     <row r="120">
@@ -16737,105 +16959,105 @@
     </row>
     <row r="125">
       <c r="AB125" s="9"/>
-      <c r="AD125" s="16"/>
+      <c r="AD125" s="20"/>
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
       <c r="AH125" s="9"/>
       <c r="AI125" s="9"/>
       <c r="AL125" s="9"/>
-      <c r="AN125" s="16"/>
+      <c r="AN125" s="20"/>
       <c r="AP125" s="9"/>
       <c r="AQ125" s="9"/>
       <c r="AT125" s="9"/>
-      <c r="AV125" s="16"/>
+      <c r="AV125" s="20"/>
       <c r="AX125" s="9"/>
       <c r="AY125" s="9"/>
       <c r="BB125" s="9"/>
-      <c r="BD125" s="16"/>
+      <c r="BD125" s="20"/>
       <c r="BF125" s="9"/>
       <c r="BG125" s="9"/>
       <c r="BJ125" s="9"/>
-      <c r="BL125" s="16"/>
+      <c r="BL125" s="20"/>
       <c r="BN125" s="9"/>
       <c r="BO125" s="9"/>
       <c r="BR125" s="9"/>
-      <c r="BT125" s="16"/>
+      <c r="BT125" s="20"/>
       <c r="BV125" s="9"/>
       <c r="BW125" s="9"/>
       <c r="BZ125" s="9"/>
-      <c r="CB125" s="16"/>
+      <c r="CB125" s="20"/>
       <c r="CD125" s="9"/>
     </row>
     <row r="126">
-      <c r="AA126" s="25"/>
+      <c r="AA126" s="33"/>
       <c r="AB126" s="9"/>
-      <c r="AD126" s="16"/>
+      <c r="AD126" s="20"/>
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="9"/>
       <c r="AI126" s="9"/>
-      <c r="AK126" s="25"/>
+      <c r="AK126" s="33"/>
       <c r="AL126" s="9"/>
-      <c r="AN126" s="16"/>
+      <c r="AN126" s="20"/>
       <c r="AP126" s="9"/>
       <c r="AQ126" s="9"/>
-      <c r="AS126" s="25"/>
+      <c r="AS126" s="33"/>
       <c r="AT126" s="9"/>
-      <c r="AV126" s="16"/>
+      <c r="AV126" s="20"/>
       <c r="AX126" s="9"/>
       <c r="AY126" s="9"/>
-      <c r="BA126" s="25"/>
+      <c r="BA126" s="33"/>
       <c r="BB126" s="9"/>
-      <c r="BD126" s="16"/>
+      <c r="BD126" s="20"/>
       <c r="BF126" s="9"/>
       <c r="BG126" s="9"/>
-      <c r="BI126" s="25"/>
+      <c r="BI126" s="33"/>
       <c r="BJ126" s="9"/>
-      <c r="BL126" s="16"/>
+      <c r="BL126" s="20"/>
       <c r="BN126" s="9"/>
       <c r="BO126" s="9"/>
-      <c r="BQ126" s="25"/>
+      <c r="BQ126" s="33"/>
       <c r="BR126" s="9"/>
-      <c r="BT126" s="16"/>
+      <c r="BT126" s="20"/>
       <c r="BV126" s="9"/>
       <c r="BW126" s="9"/>
-      <c r="BY126" s="25"/>
+      <c r="BY126" s="33"/>
       <c r="BZ126" s="9"/>
-      <c r="CB126" s="16"/>
+      <c r="CB126" s="20"/>
       <c r="CD126" s="9"/>
     </row>
     <row r="127">
       <c r="AB127" s="9"/>
-      <c r="AD127" s="16"/>
+      <c r="AD127" s="20"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
       <c r="AH127" s="9"/>
       <c r="AI127" s="9"/>
       <c r="AL127" s="9"/>
-      <c r="AN127" s="16"/>
+      <c r="AN127" s="20"/>
       <c r="AP127" s="9"/>
       <c r="AQ127" s="9"/>
       <c r="AT127" s="9"/>
-      <c r="AV127" s="16"/>
+      <c r="AV127" s="20"/>
       <c r="AX127" s="9"/>
       <c r="AY127" s="9"/>
       <c r="BB127" s="9"/>
-      <c r="BD127" s="16"/>
+      <c r="BD127" s="20"/>
       <c r="BF127" s="9"/>
       <c r="BG127" s="9"/>
       <c r="BJ127" s="9"/>
-      <c r="BL127" s="16"/>
+      <c r="BL127" s="20"/>
       <c r="BN127" s="9"/>
       <c r="BO127" s="9"/>
       <c r="BR127" s="9"/>
-      <c r="BT127" s="16"/>
+      <c r="BT127" s="20"/>
       <c r="BV127" s="9"/>
       <c r="BW127" s="9"/>
       <c r="BZ127" s="9"/>
-      <c r="CB127" s="16"/>
+      <c r="CB127" s="20"/>
       <c r="CD127" s="9"/>
     </row>
     <row r="128">
@@ -16844,17 +17066,17 @@
       <c r="AF128" s="1"/>
       <c r="AG128" s="9"/>
       <c r="AH128" s="1"/>
-      <c r="AI128" s="16"/>
+      <c r="AI128" s="20"/>
       <c r="AP128" s="1"/>
-      <c r="AQ128" s="16"/>
+      <c r="AQ128" s="20"/>
       <c r="AX128" s="1"/>
-      <c r="AY128" s="16"/>
+      <c r="AY128" s="20"/>
       <c r="BF128" s="1"/>
-      <c r="BG128" s="16"/>
+      <c r="BG128" s="20"/>
       <c r="BN128" s="1"/>
-      <c r="BO128" s="16"/>
+      <c r="BO128" s="20"/>
       <c r="BV128" s="1"/>
-      <c r="BW128" s="16"/>
+      <c r="BW128" s="20"/>
       <c r="CD128" s="1"/>
     </row>
     <row r="129">
@@ -16863,40 +17085,40 @@
       <c r="AC129" s="8"/>
       <c r="AD129" s="8"/>
       <c r="AE129" s="1"/>
-      <c r="AF129" s="25"/>
+      <c r="AF129" s="33"/>
       <c r="AG129" s="9"/>
       <c r="AH129" s="1"/>
-      <c r="AI129" s="16"/>
+      <c r="AI129" s="20"/>
       <c r="AK129" s="8"/>
       <c r="AL129" s="8"/>
       <c r="AM129" s="8"/>
       <c r="AN129" s="8"/>
       <c r="AP129" s="1"/>
-      <c r="AQ129" s="16"/>
+      <c r="AQ129" s="20"/>
       <c r="AS129" s="8"/>
       <c r="AT129" s="8"/>
       <c r="AU129" s="8"/>
       <c r="AV129" s="8"/>
       <c r="AX129" s="1"/>
-      <c r="AY129" s="16"/>
+      <c r="AY129" s="20"/>
       <c r="BA129" s="8"/>
       <c r="BB129" s="8"/>
       <c r="BC129" s="8"/>
       <c r="BD129" s="8"/>
       <c r="BF129" s="1"/>
-      <c r="BG129" s="16"/>
+      <c r="BG129" s="20"/>
       <c r="BI129" s="8"/>
       <c r="BJ129" s="8"/>
       <c r="BK129" s="8"/>
       <c r="BL129" s="8"/>
       <c r="BN129" s="1"/>
-      <c r="BO129" s="16"/>
+      <c r="BO129" s="20"/>
       <c r="BQ129" s="8"/>
       <c r="BR129" s="8"/>
       <c r="BS129" s="8"/>
       <c r="BT129" s="8"/>
       <c r="BV129" s="1"/>
-      <c r="BW129" s="16"/>
+      <c r="BW129" s="20"/>
       <c r="BY129" s="8"/>
       <c r="BZ129" s="8"/>
       <c r="CA129" s="8"/>
@@ -16912,37 +17134,37 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="9"/>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="16"/>
+      <c r="AI130" s="20"/>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
       <c r="AM130" s="9"/>
       <c r="AN130" s="9"/>
       <c r="AP130" s="1"/>
-      <c r="AQ130" s="16"/>
+      <c r="AQ130" s="20"/>
       <c r="AS130" s="9"/>
       <c r="AT130" s="9"/>
       <c r="AU130" s="9"/>
       <c r="AV130" s="9"/>
       <c r="AX130" s="1"/>
-      <c r="AY130" s="16"/>
+      <c r="AY130" s="20"/>
       <c r="BA130" s="9"/>
       <c r="BB130" s="9"/>
       <c r="BC130" s="9"/>
       <c r="BD130" s="9"/>
       <c r="BF130" s="1"/>
-      <c r="BG130" s="16"/>
+      <c r="BG130" s="20"/>
       <c r="BI130" s="9"/>
       <c r="BJ130" s="9"/>
       <c r="BK130" s="9"/>
       <c r="BL130" s="9"/>
       <c r="BN130" s="1"/>
-      <c r="BO130" s="16"/>
+      <c r="BO130" s="20"/>
       <c r="BQ130" s="9"/>
       <c r="BR130" s="9"/>
       <c r="BS130" s="9"/>
       <c r="BT130" s="9"/>
       <c r="BV130" s="1"/>
-      <c r="BW130" s="16"/>
+      <c r="BW130" s="20"/>
       <c r="BY130" s="9"/>
       <c r="BZ130" s="9"/>
       <c r="CA130" s="9"/>
@@ -17022,27 +17244,27 @@
       <c r="AH133" s="9"/>
       <c r="AI133" s="9"/>
       <c r="AL133" s="9"/>
-      <c r="AN133" s="16"/>
+      <c r="AN133" s="20"/>
       <c r="AP133" s="9"/>
       <c r="AQ133" s="9"/>
       <c r="AT133" s="9"/>
-      <c r="AV133" s="16"/>
+      <c r="AV133" s="20"/>
       <c r="AX133" s="9"/>
       <c r="AY133" s="9"/>
       <c r="BB133" s="9"/>
-      <c r="BD133" s="16"/>
+      <c r="BD133" s="20"/>
       <c r="BF133" s="9"/>
       <c r="BG133" s="9"/>
       <c r="BJ133" s="9"/>
-      <c r="BL133" s="16"/>
+      <c r="BL133" s="20"/>
       <c r="BN133" s="9"/>
       <c r="BO133" s="9"/>
       <c r="BR133" s="9"/>
-      <c r="BT133" s="16"/>
+      <c r="BT133" s="20"/>
       <c r="BV133" s="9"/>
       <c r="BW133" s="9"/>
       <c r="BZ133" s="9"/>
-      <c r="CB133" s="16"/>
+      <c r="CB133" s="20"/>
       <c r="CD133" s="9"/>
     </row>
     <row r="134">
@@ -17053,34 +17275,34 @@
       <c r="AG134" s="1"/>
       <c r="AH134" s="9"/>
       <c r="AI134" s="9"/>
-      <c r="AK134" s="25"/>
+      <c r="AK134" s="33"/>
       <c r="AL134" s="9"/>
-      <c r="AN134" s="16"/>
+      <c r="AN134" s="20"/>
       <c r="AP134" s="9"/>
       <c r="AQ134" s="9"/>
-      <c r="AS134" s="25"/>
+      <c r="AS134" s="33"/>
       <c r="AT134" s="9"/>
-      <c r="AV134" s="16"/>
+      <c r="AV134" s="20"/>
       <c r="AX134" s="9"/>
       <c r="AY134" s="9"/>
-      <c r="BA134" s="25"/>
+      <c r="BA134" s="33"/>
       <c r="BB134" s="9"/>
-      <c r="BD134" s="16"/>
+      <c r="BD134" s="20"/>
       <c r="BF134" s="9"/>
       <c r="BG134" s="9"/>
-      <c r="BI134" s="25"/>
+      <c r="BI134" s="33"/>
       <c r="BJ134" s="9"/>
-      <c r="BL134" s="16"/>
+      <c r="BL134" s="20"/>
       <c r="BN134" s="9"/>
       <c r="BO134" s="9"/>
-      <c r="BQ134" s="25"/>
+      <c r="BQ134" s="33"/>
       <c r="BR134" s="9"/>
-      <c r="BT134" s="16"/>
+      <c r="BT134" s="20"/>
       <c r="BV134" s="9"/>
       <c r="BW134" s="9"/>
-      <c r="BY134" s="25"/>
+      <c r="BY134" s="33"/>
       <c r="BZ134" s="9"/>
-      <c r="CB134" s="16"/>
+      <c r="CB134" s="20"/>
       <c r="CD134" s="9"/>
     </row>
     <row r="135">
@@ -17090,90 +17312,90 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="9"/>
       <c r="AH135" s="1"/>
-      <c r="AI135" s="16"/>
+      <c r="AI135" s="20"/>
       <c r="AL135" s="9"/>
-      <c r="AN135" s="16"/>
+      <c r="AN135" s="20"/>
       <c r="AP135" s="1"/>
-      <c r="AQ135" s="16"/>
+      <c r="AQ135" s="20"/>
       <c r="AT135" s="9"/>
-      <c r="AV135" s="16"/>
+      <c r="AV135" s="20"/>
       <c r="AX135" s="1"/>
-      <c r="AY135" s="16"/>
+      <c r="AY135" s="20"/>
       <c r="BB135" s="9"/>
-      <c r="BD135" s="16"/>
+      <c r="BD135" s="20"/>
       <c r="BF135" s="1"/>
-      <c r="BG135" s="16"/>
+      <c r="BG135" s="20"/>
       <c r="BJ135" s="9"/>
-      <c r="BL135" s="16"/>
+      <c r="BL135" s="20"/>
       <c r="BN135" s="1"/>
-      <c r="BO135" s="16"/>
+      <c r="BO135" s="20"/>
       <c r="BR135" s="9"/>
-      <c r="BT135" s="16"/>
+      <c r="BT135" s="20"/>
       <c r="BV135" s="1"/>
-      <c r="BW135" s="16"/>
+      <c r="BW135" s="20"/>
       <c r="BZ135" s="9"/>
-      <c r="CB135" s="16"/>
+      <c r="CB135" s="20"/>
       <c r="CD135" s="1"/>
     </row>
     <row r="136">
       <c r="AB136" s="9"/>
-      <c r="AD136" s="16"/>
+      <c r="AD136" s="20"/>
       <c r="AE136" s="1"/>
-      <c r="AF136" s="25"/>
+      <c r="AF136" s="33"/>
       <c r="AG136" s="9"/>
       <c r="AH136" s="1"/>
-      <c r="AI136" s="16"/>
+      <c r="AI136" s="20"/>
       <c r="AP136" s="1"/>
-      <c r="AQ136" s="16"/>
+      <c r="AQ136" s="20"/>
       <c r="AX136" s="1"/>
-      <c r="AY136" s="16"/>
+      <c r="AY136" s="20"/>
       <c r="BF136" s="1"/>
-      <c r="BG136" s="16"/>
+      <c r="BG136" s="20"/>
       <c r="BN136" s="1"/>
-      <c r="BO136" s="16"/>
+      <c r="BO136" s="20"/>
       <c r="BV136" s="1"/>
-      <c r="BW136" s="16"/>
+      <c r="BW136" s="20"/>
       <c r="CD136" s="1"/>
     </row>
     <row r="137">
-      <c r="AA137" s="25"/>
+      <c r="AA137" s="33"/>
       <c r="AB137" s="9"/>
-      <c r="AD137" s="16"/>
+      <c r="AD137" s="20"/>
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
       <c r="AG137" s="9"/>
       <c r="AH137" s="1"/>
-      <c r="AI137" s="16"/>
+      <c r="AI137" s="20"/>
       <c r="AK137" s="8"/>
       <c r="AL137" s="8"/>
       <c r="AM137" s="8"/>
       <c r="AN137" s="8"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="16"/>
+      <c r="AQ137" s="20"/>
       <c r="AS137" s="8"/>
       <c r="AT137" s="8"/>
       <c r="AU137" s="8"/>
       <c r="AV137" s="8"/>
       <c r="AX137" s="1"/>
-      <c r="AY137" s="16"/>
+      <c r="AY137" s="20"/>
       <c r="BA137" s="8"/>
       <c r="BB137" s="8"/>
       <c r="BC137" s="8"/>
       <c r="BD137" s="8"/>
       <c r="BF137" s="1"/>
-      <c r="BG137" s="16"/>
+      <c r="BG137" s="20"/>
       <c r="BI137" s="8"/>
       <c r="BJ137" s="8"/>
       <c r="BK137" s="8"/>
       <c r="BL137" s="8"/>
       <c r="BN137" s="1"/>
-      <c r="BO137" s="16"/>
+      <c r="BO137" s="20"/>
       <c r="BQ137" s="8"/>
       <c r="BR137" s="8"/>
       <c r="BS137" s="8"/>
       <c r="BT137" s="8"/>
       <c r="BV137" s="1"/>
-      <c r="BW137" s="16"/>
+      <c r="BW137" s="20"/>
       <c r="BY137" s="8"/>
       <c r="BZ137" s="8"/>
       <c r="CA137" s="8"/>
@@ -17182,7 +17404,7 @@
     </row>
     <row r="138">
       <c r="AB138" s="9"/>
-      <c r="AD138" s="16"/>
+      <c r="AD138" s="20"/>
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
@@ -17333,27 +17555,27 @@
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
       <c r="AL142" s="9"/>
-      <c r="AN142" s="16"/>
+      <c r="AN142" s="20"/>
       <c r="AP142" s="1"/>
       <c r="AQ142" s="1"/>
       <c r="AT142" s="9"/>
-      <c r="AV142" s="16"/>
+      <c r="AV142" s="20"/>
       <c r="AX142" s="1"/>
       <c r="AY142" s="1"/>
       <c r="BB142" s="9"/>
-      <c r="BD142" s="16"/>
+      <c r="BD142" s="20"/>
       <c r="BF142" s="1"/>
       <c r="BG142" s="1"/>
       <c r="BJ142" s="9"/>
-      <c r="BL142" s="16"/>
+      <c r="BL142" s="20"/>
       <c r="BN142" s="1"/>
       <c r="BO142" s="1"/>
       <c r="BR142" s="9"/>
-      <c r="BT142" s="16"/>
+      <c r="BT142" s="20"/>
       <c r="BV142" s="1"/>
       <c r="BW142" s="1"/>
       <c r="BZ142" s="9"/>
-      <c r="CB142" s="16"/>
+      <c r="CB142" s="20"/>
       <c r="CD142" s="1"/>
     </row>
     <row r="143">
@@ -17364,34 +17586,34 @@
       <c r="AG143" s="1"/>
       <c r="AH143" s="1"/>
       <c r="AI143" s="1"/>
-      <c r="AK143" s="25"/>
+      <c r="AK143" s="33"/>
       <c r="AL143" s="9"/>
-      <c r="AN143" s="16"/>
+      <c r="AN143" s="20"/>
       <c r="AP143" s="1"/>
       <c r="AQ143" s="1"/>
-      <c r="AS143" s="25"/>
+      <c r="AS143" s="33"/>
       <c r="AT143" s="9"/>
-      <c r="AV143" s="16"/>
+      <c r="AV143" s="20"/>
       <c r="AX143" s="1"/>
       <c r="AY143" s="1"/>
-      <c r="BA143" s="25"/>
+      <c r="BA143" s="33"/>
       <c r="BB143" s="9"/>
-      <c r="BD143" s="16"/>
+      <c r="BD143" s="20"/>
       <c r="BF143" s="1"/>
       <c r="BG143" s="1"/>
-      <c r="BI143" s="25"/>
+      <c r="BI143" s="33"/>
       <c r="BJ143" s="9"/>
-      <c r="BL143" s="16"/>
+      <c r="BL143" s="20"/>
       <c r="BN143" s="1"/>
       <c r="BO143" s="1"/>
-      <c r="BQ143" s="25"/>
+      <c r="BQ143" s="33"/>
       <c r="BR143" s="9"/>
-      <c r="BT143" s="16"/>
+      <c r="BT143" s="20"/>
       <c r="BV143" s="1"/>
       <c r="BW143" s="1"/>
-      <c r="BY143" s="25"/>
+      <c r="BY143" s="33"/>
       <c r="BZ143" s="9"/>
-      <c r="CB143" s="16"/>
+      <c r="CB143" s="20"/>
       <c r="CD143" s="1"/>
     </row>
     <row r="144">
@@ -17403,27 +17625,27 @@
       <c r="AH144" s="1"/>
       <c r="AI144" s="1"/>
       <c r="AL144" s="9"/>
-      <c r="AN144" s="16"/>
+      <c r="AN144" s="20"/>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
       <c r="AT144" s="9"/>
-      <c r="AV144" s="16"/>
+      <c r="AV144" s="20"/>
       <c r="AX144" s="1"/>
       <c r="AY144" s="1"/>
       <c r="BB144" s="9"/>
-      <c r="BD144" s="16"/>
+      <c r="BD144" s="20"/>
       <c r="BF144" s="1"/>
       <c r="BG144" s="1"/>
       <c r="BJ144" s="9"/>
-      <c r="BL144" s="16"/>
+      <c r="BL144" s="20"/>
       <c r="BN144" s="1"/>
       <c r="BO144" s="1"/>
       <c r="BR144" s="9"/>
-      <c r="BT144" s="16"/>
+      <c r="BT144" s="20"/>
       <c r="BV144" s="1"/>
       <c r="BW144" s="1"/>
       <c r="BZ144" s="9"/>
-      <c r="CB144" s="16"/>
+      <c r="CB144" s="20"/>
       <c r="CD144" s="1"/>
     </row>
     <row r="145">
@@ -17468,7 +17690,7 @@
     </row>
     <row r="147">
       <c r="AB147" s="9"/>
-      <c r="AD147" s="16"/>
+      <c r="AD147" s="20"/>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
@@ -17487,9 +17709,9 @@
       <c r="CD147" s="1"/>
     </row>
     <row r="148">
-      <c r="AA148" s="25"/>
+      <c r="AA148" s="33"/>
       <c r="AB148" s="9"/>
-      <c r="AD148" s="16"/>
+      <c r="AD148" s="20"/>
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
@@ -17509,7 +17731,7 @@
     </row>
     <row r="149">
       <c r="AB149" s="9"/>
-      <c r="AD149" s="16"/>
+      <c r="AD149" s="20"/>
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
@@ -17604,7 +17826,7 @@
       <c r="CD153" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="T2:Y2"/>
@@ -17615,6 +17837,7 @@
     <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="BO2:BU2"/>
     <mergeCell ref="BW2:CC2"/>
+    <mergeCell ref="CE2:CK2"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="AI12:AO12"/>
     <mergeCell ref="AQ12:AW12"/>
@@ -17641,7 +17864,7 @@
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
-  <tableParts count="31">
+  <tableParts count="32">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -17673,6 +17896,7 @@
     <tablePart r:id="rId29"/>
     <tablePart r:id="rId30"/>
     <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17687,273 +17911,273 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>252</v>
+      <c r="B2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="B3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="38">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="b">
+      <c r="D3" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="b">
+      <c r="E3" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="31"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4">
-      <c r="B4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="38">
         <v>3.7000000000000002</v>
       </c>
-      <c r="D4" s="30" t="b">
+      <c r="D4" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="30" t="b">
+      <c r="E4" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="31"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5">
-      <c r="B5" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="38">
         <v>3.2999999999999998</v>
       </c>
-      <c r="D5" s="30" t="b">
+      <c r="D5" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="30" t="b">
+      <c r="E5" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="31"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6">
-      <c r="B6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="30">
-        <v>3</v>
-      </c>
-      <c r="D6" s="30" t="b">
+      <c r="B6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="38">
+        <v>3</v>
+      </c>
+      <c r="D6" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="30" t="b">
+      <c r="E6" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7">
-      <c r="B7" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="38">
         <v>2.7000000000000002</v>
       </c>
-      <c r="D7" s="30" t="b">
+      <c r="D7" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="30" t="b">
+      <c r="E7" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="31"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8">
-      <c r="B8" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D8" s="30" t="b">
+      <c r="D8" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="30" t="b">
+      <c r="E8" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="31"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9">
-      <c r="B9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="B9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="38">
         <v>2</v>
       </c>
-      <c r="D9" s="30" t="b">
+      <c r="D9" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="30" t="b">
+      <c r="E9" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10">
-      <c r="B10" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="38">
         <v>1.7</v>
       </c>
-      <c r="D10" s="30" t="b">
+      <c r="D10" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="30" t="b">
+      <c r="E10" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M10" s="31"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11">
-      <c r="B11" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="38">
         <v>1.3</v>
       </c>
-      <c r="D11" s="30" t="b">
+      <c r="D11" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="30" t="b">
+      <c r="E11" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M11" s="31"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12">
-      <c r="B12" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="38">
         <v>1</v>
       </c>
-      <c r="D12" s="30" t="b">
+      <c r="D12" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="30" t="b">
+      <c r="E12" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13">
-      <c r="B13" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30" t="b">
+      <c r="B13" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="38">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14">
-      <c r="B14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30" t="b">
+      <c r="B14" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="38">
+        <v>0</v>
+      </c>
+      <c r="D14" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="31"/>
+      <c r="E14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39"/>
     </row>
     <row r="15">
-      <c r="B15" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="30" t="b">
+      <c r="B15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="38">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="31"/>
+      <c r="E15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="39"/>
     </row>
     <row r="16">
-      <c r="B16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="30" t="b">
+      <c r="B16" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="38">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="39"/>
     </row>
     <row r="17">
-      <c r="B17" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="B17" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="38">
+        <v>0</v>
+      </c>
+      <c r="D17" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18">
-      <c r="B18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="30">
-        <v>0</v>
-      </c>
-      <c r="D18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="30" t="b">
+      <c r="B18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="38">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30">
-        <v>0</v>
-      </c>
-      <c r="D19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="30" t="b">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="31"/>
+      <c r="D21" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Academic Plan [Faye].xlsx
+++ b/Academic Plan [Faye].xlsx
@@ -6544,7 +6544,7 @@
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="BU1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="BA4" zoomScale="85" workbookViewId="0">
       <selection activeCell="CD13" activeCellId="0" sqref="CD13"/>
     </sheetView>
   </sheetViews>
@@ -7000,15 +7000,15 @@
       </c>
       <c r="U4" s="4">
         <f>BY30</f>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V4" s="4">
         <f>BZ30</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W4" s="4">
         <f>CA30</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X4" s="4">
         <f>CB30</f>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="Y4" s="13">
         <f>CC30</f>
-        <v>2.8615384615384616</v>
+        <v>2.8372881355932202</v>
       </c>
       <c r="AA4" s="14" t="s">
         <v>29</v>
@@ -8612,15 +8612,15 @@
       <c r="BP10" s="26"/>
       <c r="BQ10" s="27">
         <f>AU_24[[#Totals],[AH]]+BI30</f>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BR10" s="27">
         <f>AU_24[[#Totals],[EH]]+BJ30</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BS10" s="27">
         <f>AU_24[[#Totals],[GH]]+BK30</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BT10" s="27">
         <f>AU_24[[#Totals],[Grade]]+BL30</f>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="BU10" s="28">
         <f>BT10/BS10</f>
-        <v>3.3148514851485151</v>
+        <v>3.2823529411764709</v>
       </c>
       <c r="BW10" s="25" t="s">
         <v>119</v>
@@ -8636,15 +8636,15 @@
       <c r="BX10" s="26"/>
       <c r="BY10" s="27">
         <f>AU_25[[#Totals],[AH]]+BQ30</f>
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BZ10" s="27">
         <f>AU_25[[#Totals],[EH]]+BR30</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CA10" s="27">
         <f>AU_25[[#Totals],[GH]]+BS30</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="CB10" s="27">
         <f>AU_25[[#Totals],[Grade]]+BT30</f>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="CC10" s="28">
         <f>CB10/CA10</f>
-        <v>3.0436363636363639</v>
+        <v>3.0162162162162165</v>
       </c>
       <c r="CE10" s="29" t="s">
         <v>119</v>
@@ -10333,15 +10333,15 @@
       <c r="BP20" s="26"/>
       <c r="BQ20" s="27">
         <f>SP_25[[#Totals],[AH]]+BQ10</f>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR20" s="27">
         <f>SP_25[[#Totals],[EH]]+BR10</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BS20" s="27">
         <f>SP_25[[#Totals],[GH]]+BS10</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BT20" s="27">
         <f>SP_25[[#Totals],[Grade]]+BT10</f>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="BU20" s="28">
         <f>BT20/BS20</f>
-        <v>3.3148514851485151</v>
+        <v>3.2823529411764709</v>
       </c>
       <c r="BV20" s="9"/>
       <c r="BW20" s="25" t="s">
@@ -10358,15 +10358,15 @@
       <c r="BX20" s="26"/>
       <c r="BY20" s="27">
         <f>SP_26[[#Totals],[AH]]+BY10</f>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BZ20" s="27">
         <f>SP_26[[#Totals],[EH]]+BZ10</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CA20" s="27">
         <f>SP_26[[#Totals],[GH]]+CA10</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CB20" s="27">
         <f>SP_26[[#Totals],[Grade]]+CB10</f>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="CC20" s="28">
         <f>CB20/CA20</f>
-        <v>2.8615384615384616</v>
+        <v>2.8372881355932202</v>
       </c>
       <c r="CD20" s="9"/>
     </row>
@@ -10930,20 +10930,27 @@
         <v>0</v>
       </c>
       <c r="BF24" s="12"/>
-      <c r="BG24" s="1"/>
-      <c r="BI24" s="9"/>
+      <c r="BG24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI24" s="9">
+        <v>1</v>
+      </c>
       <c r="BJ24" s="9">
         <f>IF(_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Earned]),SU_24[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK24" s="9">
         <f>IF(_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Graded]),SU_24[[#This Row],[AH]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24" s="9"/>
       <c r="BM24" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN24" s="12"/>
       <c r="BO24" s="1" t="s">
@@ -11106,7 +11113,7 @@
       <c r="BL25" s="9"/>
       <c r="BM25" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN25" s="12"/>
       <c r="BO25" s="1"/>
@@ -11266,7 +11273,7 @@
       <c r="BL26" s="9"/>
       <c r="BM26" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN26" s="12"/>
       <c r="BO26" s="1"/>
@@ -11440,7 +11447,7 @@
       <c r="BL27" s="9"/>
       <c r="BM27" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN27" s="12"/>
       <c r="BO27" s="1"/>
@@ -11617,7 +11624,7 @@
       <c r="BL28" s="9"/>
       <c r="BM28" s="12">
         <f>_xlfn.XLOOKUP(SU_24[[#This Row],[Grade]],GPAScale[Grade],GPAScale[Points])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN28" s="12"/>
       <c r="BO28" s="1"/>
@@ -11790,15 +11797,15 @@
       <c r="BH29" s="9"/>
       <c r="BI29" s="4">
         <f>SUBTOTAL(109,SU_24[AH])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ29" s="9">
         <f>SUBTOTAL(109,SU_24[EH])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK29" s="4">
         <f>SUBTOTAL(109,SU_24[GH])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="4">
         <f>SU_24[[#Totals],[GPA]]*SU_24[[#Totals],[GH]]</f>
@@ -12006,15 +12013,15 @@
       <c r="BH30" s="26"/>
       <c r="BI30" s="27">
         <f>SU_24[[#Totals],[AH]]+BI20</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BJ30" s="27">
         <f>SU_24[[#Totals],[EH]]+BJ20</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BK30" s="27">
         <f>SU_24[[#Totals],[GH]]+BK20</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BL30" s="27">
         <f>SU_24[[#Totals],[Grade]]+BL20</f>
@@ -12022,7 +12029,7 @@
       </c>
       <c r="BM30" s="28">
         <f>BL30/BK30</f>
-        <v>3.3148514851485151</v>
+        <v>3.2823529411764709</v>
       </c>
       <c r="BN30" s="12"/>
       <c r="BO30" s="25" t="s">
@@ -12031,15 +12038,15 @@
       <c r="BP30" s="26"/>
       <c r="BQ30" s="27">
         <f>SU_25[[#Totals],[AH]]+BQ20</f>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BR30" s="27">
         <f>SU_25[[#Totals],[EH]]+BR20</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BS30" s="27">
         <f>SU_25[[#Totals],[GH]]+BS20</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BT30" s="27">
         <f>SU_25[[#Totals],[Grade]]+BT20</f>
@@ -12047,7 +12054,7 @@
       </c>
       <c r="BU30" s="28">
         <f>BT30/BS30</f>
-        <v>3.3148514851485151</v>
+        <v>3.2823529411764709</v>
       </c>
       <c r="BV30" s="12"/>
       <c r="BW30" s="25" t="s">
@@ -12056,15 +12063,15 @@
       <c r="BX30" s="26"/>
       <c r="BY30" s="27">
         <f>SU_26[[#Totals],[AH]]+BY20</f>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BZ30" s="27">
         <f>SU_26[[#Totals],[EH]]+BZ20</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CA30" s="27">
         <f>SU_26[[#Totals],[GH]]+CA20</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CB30" s="27">
         <f>SU_26[[#Totals],[Grade]]+CB20</f>
@@ -12072,7 +12079,7 @@
       </c>
       <c r="CC30" s="28">
         <f>CB30/CA30</f>
-        <v>2.8615384615384616</v>
+        <v>2.8372881355932202</v>
       </c>
       <c r="CD30" s="12"/>
     </row>
